--- a/JP (Exclude Game)/Dialog/Drama/_main.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_main.xlsx
@@ -1110,7 +1110,7 @@
 …その力を解放するすべは、長い時の流れの中で失われてしまいました。</t>
   </si>
   <si>
-    <t xml:space="preserve">O  daughter of the forest, a mortal, yet one who hears my voice. My name is Ornev, the companion of the great Unyielding Tree, the first being and the mother of all living things in Ylva.
+    <t xml:space="preserve">O  daughter of the forest, a mortal, yet one who hears my voice. My name is Onev, the companion of the great Unyielding Tree, the first being and the mother of all living things in Ylva.
 The crystal you see before you is a petrified form of an ancient tree together with ether. It is a crystal that contains immense power.
 ...The means to release the power has been lost in the long passage of time.</t>
   </si>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1952,6 +1952,10 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2437,9 +2441,9 @@
   <dimension ref="A1:IW492"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="J257" activeCellId="0" sqref="J257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15185,7 +15189,7 @@
       <c r="I257" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J257" s="6" t="s">
+      <c r="J257" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -28633,252 +28637,252 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
-      <c r="AS52" s="0"/>
-      <c r="AT52" s="0"/>
-      <c r="AU52" s="0"/>
-      <c r="AV52" s="0"/>
-      <c r="AW52" s="0"/>
-      <c r="AX52" s="0"/>
-      <c r="AY52" s="0"/>
-      <c r="AZ52" s="0"/>
-      <c r="BA52" s="0"/>
-      <c r="BB52" s="0"/>
-      <c r="BC52" s="0"/>
-      <c r="BD52" s="0"/>
-      <c r="BE52" s="0"/>
-      <c r="BF52" s="0"/>
-      <c r="BG52" s="0"/>
-      <c r="BH52" s="0"/>
-      <c r="BI52" s="0"/>
-      <c r="BJ52" s="0"/>
-      <c r="BK52" s="0"/>
-      <c r="BL52" s="0"/>
-      <c r="BM52" s="0"/>
-      <c r="BN52" s="0"/>
-      <c r="BO52" s="0"/>
-      <c r="BP52" s="0"/>
-      <c r="BQ52" s="0"/>
-      <c r="BR52" s="0"/>
-      <c r="BS52" s="0"/>
-      <c r="BT52" s="0"/>
-      <c r="BU52" s="0"/>
-      <c r="BV52" s="0"/>
-      <c r="BW52" s="0"/>
-      <c r="BX52" s="0"/>
-      <c r="BY52" s="0"/>
-      <c r="BZ52" s="0"/>
-      <c r="CA52" s="0"/>
-      <c r="CB52" s="0"/>
-      <c r="CC52" s="0"/>
-      <c r="CD52" s="0"/>
-      <c r="CE52" s="0"/>
-      <c r="CF52" s="0"/>
-      <c r="CG52" s="0"/>
-      <c r="CH52" s="0"/>
-      <c r="CI52" s="0"/>
-      <c r="CJ52" s="0"/>
-      <c r="CK52" s="0"/>
-      <c r="CL52" s="0"/>
-      <c r="CM52" s="0"/>
-      <c r="CN52" s="0"/>
-      <c r="CO52" s="0"/>
-      <c r="CP52" s="0"/>
-      <c r="CQ52" s="0"/>
-      <c r="CR52" s="0"/>
-      <c r="CS52" s="0"/>
-      <c r="CT52" s="0"/>
-      <c r="CU52" s="0"/>
-      <c r="CV52" s="0"/>
-      <c r="CW52" s="0"/>
-      <c r="CX52" s="0"/>
-      <c r="CY52" s="0"/>
-      <c r="CZ52" s="0"/>
-      <c r="DA52" s="0"/>
-      <c r="DB52" s="0"/>
-      <c r="DC52" s="0"/>
-      <c r="DD52" s="0"/>
-      <c r="DE52" s="0"/>
-      <c r="DF52" s="0"/>
-      <c r="DG52" s="0"/>
-      <c r="DH52" s="0"/>
-      <c r="DI52" s="0"/>
-      <c r="DJ52" s="0"/>
-      <c r="DK52" s="0"/>
-      <c r="DL52" s="0"/>
-      <c r="DM52" s="0"/>
-      <c r="DN52" s="0"/>
-      <c r="DO52" s="0"/>
-      <c r="DP52" s="0"/>
-      <c r="DQ52" s="0"/>
-      <c r="DR52" s="0"/>
-      <c r="DS52" s="0"/>
-      <c r="DT52" s="0"/>
-      <c r="DU52" s="0"/>
-      <c r="DV52" s="0"/>
-      <c r="DW52" s="0"/>
-      <c r="DX52" s="0"/>
-      <c r="DY52" s="0"/>
-      <c r="DZ52" s="0"/>
-      <c r="EA52" s="0"/>
-      <c r="EB52" s="0"/>
-      <c r="EC52" s="0"/>
-      <c r="ED52" s="0"/>
-      <c r="EE52" s="0"/>
-      <c r="EF52" s="0"/>
-      <c r="EG52" s="0"/>
-      <c r="EH52" s="0"/>
-      <c r="EI52" s="0"/>
-      <c r="EJ52" s="0"/>
-      <c r="EK52" s="0"/>
-      <c r="EL52" s="0"/>
-      <c r="EM52" s="0"/>
-      <c r="EN52" s="0"/>
-      <c r="EO52" s="0"/>
-      <c r="EP52" s="0"/>
-      <c r="EQ52" s="0"/>
-      <c r="ER52" s="0"/>
-      <c r="ES52" s="0"/>
-      <c r="ET52" s="0"/>
-      <c r="EU52" s="0"/>
-      <c r="EV52" s="0"/>
-      <c r="EW52" s="0"/>
-      <c r="EX52" s="0"/>
-      <c r="EY52" s="0"/>
-      <c r="EZ52" s="0"/>
-      <c r="FA52" s="0"/>
-      <c r="FB52" s="0"/>
-      <c r="FC52" s="0"/>
-      <c r="FD52" s="0"/>
-      <c r="FE52" s="0"/>
-      <c r="FF52" s="0"/>
-      <c r="FG52" s="0"/>
-      <c r="FH52" s="0"/>
-      <c r="FI52" s="0"/>
-      <c r="FJ52" s="0"/>
-      <c r="FK52" s="0"/>
-      <c r="FL52" s="0"/>
-      <c r="FM52" s="0"/>
-      <c r="FN52" s="0"/>
-      <c r="FO52" s="0"/>
-      <c r="FP52" s="0"/>
-      <c r="FQ52" s="0"/>
-      <c r="FR52" s="0"/>
-      <c r="FS52" s="0"/>
-      <c r="FT52" s="0"/>
-      <c r="FU52" s="0"/>
-      <c r="FV52" s="0"/>
-      <c r="FW52" s="0"/>
-      <c r="FX52" s="0"/>
-      <c r="FY52" s="0"/>
-      <c r="FZ52" s="0"/>
-      <c r="GA52" s="0"/>
-      <c r="GB52" s="0"/>
-      <c r="GC52" s="0"/>
-      <c r="GD52" s="0"/>
-      <c r="GE52" s="0"/>
-      <c r="GF52" s="0"/>
-      <c r="GG52" s="0"/>
-      <c r="GH52" s="0"/>
-      <c r="GI52" s="0"/>
-      <c r="GJ52" s="0"/>
-      <c r="GK52" s="0"/>
-      <c r="GL52" s="0"/>
-      <c r="GM52" s="0"/>
-      <c r="GN52" s="0"/>
-      <c r="GO52" s="0"/>
-      <c r="GP52" s="0"/>
-      <c r="GQ52" s="0"/>
-      <c r="GR52" s="0"/>
-      <c r="GS52" s="0"/>
-      <c r="GT52" s="0"/>
-      <c r="GU52" s="0"/>
-      <c r="GV52" s="0"/>
-      <c r="GW52" s="0"/>
-      <c r="GX52" s="0"/>
-      <c r="GY52" s="0"/>
-      <c r="GZ52" s="0"/>
-      <c r="HA52" s="0"/>
-      <c r="HB52" s="0"/>
-      <c r="HC52" s="0"/>
-      <c r="HD52" s="0"/>
-      <c r="HE52" s="0"/>
-      <c r="HF52" s="0"/>
-      <c r="HG52" s="0"/>
-      <c r="HH52" s="0"/>
-      <c r="HI52" s="0"/>
-      <c r="HJ52" s="0"/>
-      <c r="HK52" s="0"/>
-      <c r="HL52" s="0"/>
-      <c r="HM52" s="0"/>
-      <c r="HN52" s="0"/>
-      <c r="HO52" s="0"/>
-      <c r="HP52" s="0"/>
-      <c r="HQ52" s="0"/>
-      <c r="HR52" s="0"/>
-      <c r="HS52" s="0"/>
-      <c r="HT52" s="0"/>
-      <c r="HU52" s="0"/>
-      <c r="HV52" s="0"/>
-      <c r="HW52" s="0"/>
-      <c r="HX52" s="0"/>
-      <c r="HY52" s="0"/>
-      <c r="HZ52" s="0"/>
-      <c r="IA52" s="0"/>
-      <c r="IB52" s="0"/>
-      <c r="IC52" s="0"/>
-      <c r="ID52" s="0"/>
-      <c r="IE52" s="0"/>
-      <c r="IF52" s="0"/>
-      <c r="IG52" s="0"/>
-      <c r="IH52" s="0"/>
-      <c r="II52" s="0"/>
-      <c r="IJ52" s="0"/>
-      <c r="IK52" s="0"/>
-      <c r="IL52" s="0"/>
-      <c r="IM52" s="0"/>
-      <c r="IN52" s="0"/>
-      <c r="IO52" s="0"/>
-      <c r="IP52" s="0"/>
-      <c r="IQ52" s="0"/>
-      <c r="IR52" s="0"/>
-      <c r="IS52" s="0"/>
-      <c r="IT52" s="0"/>
-      <c r="IU52" s="0"/>
-      <c r="IV52" s="0"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
+      <c r="DB52" s="1"/>
+      <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
+      <c r="DE52" s="1"/>
+      <c r="DF52" s="1"/>
+      <c r="DG52" s="1"/>
+      <c r="DH52" s="1"/>
+      <c r="DI52" s="1"/>
+      <c r="DJ52" s="1"/>
+      <c r="DK52" s="1"/>
+      <c r="DL52" s="1"/>
+      <c r="DM52" s="1"/>
+      <c r="DN52" s="1"/>
+      <c r="DO52" s="1"/>
+      <c r="DP52" s="1"/>
+      <c r="DQ52" s="1"/>
+      <c r="DR52" s="1"/>
+      <c r="DS52" s="1"/>
+      <c r="DT52" s="1"/>
+      <c r="DU52" s="1"/>
+      <c r="DV52" s="1"/>
+      <c r="DW52" s="1"/>
+      <c r="DX52" s="1"/>
+      <c r="DY52" s="1"/>
+      <c r="DZ52" s="1"/>
+      <c r="EA52" s="1"/>
+      <c r="EB52" s="1"/>
+      <c r="EC52" s="1"/>
+      <c r="ED52" s="1"/>
+      <c r="EE52" s="1"/>
+      <c r="EF52" s="1"/>
+      <c r="EG52" s="1"/>
+      <c r="EH52" s="1"/>
+      <c r="EI52" s="1"/>
+      <c r="EJ52" s="1"/>
+      <c r="EK52" s="1"/>
+      <c r="EL52" s="1"/>
+      <c r="EM52" s="1"/>
+      <c r="EN52" s="1"/>
+      <c r="EO52" s="1"/>
+      <c r="EP52" s="1"/>
+      <c r="EQ52" s="1"/>
+      <c r="ER52" s="1"/>
+      <c r="ES52" s="1"/>
+      <c r="ET52" s="1"/>
+      <c r="EU52" s="1"/>
+      <c r="EV52" s="1"/>
+      <c r="EW52" s="1"/>
+      <c r="EX52" s="1"/>
+      <c r="EY52" s="1"/>
+      <c r="EZ52" s="1"/>
+      <c r="FA52" s="1"/>
+      <c r="FB52" s="1"/>
+      <c r="FC52" s="1"/>
+      <c r="FD52" s="1"/>
+      <c r="FE52" s="1"/>
+      <c r="FF52" s="1"/>
+      <c r="FG52" s="1"/>
+      <c r="FH52" s="1"/>
+      <c r="FI52" s="1"/>
+      <c r="FJ52" s="1"/>
+      <c r="FK52" s="1"/>
+      <c r="FL52" s="1"/>
+      <c r="FM52" s="1"/>
+      <c r="FN52" s="1"/>
+      <c r="FO52" s="1"/>
+      <c r="FP52" s="1"/>
+      <c r="FQ52" s="1"/>
+      <c r="FR52" s="1"/>
+      <c r="FS52" s="1"/>
+      <c r="FT52" s="1"/>
+      <c r="FU52" s="1"/>
+      <c r="FV52" s="1"/>
+      <c r="FW52" s="1"/>
+      <c r="FX52" s="1"/>
+      <c r="FY52" s="1"/>
+      <c r="FZ52" s="1"/>
+      <c r="GA52" s="1"/>
+      <c r="GB52" s="1"/>
+      <c r="GC52" s="1"/>
+      <c r="GD52" s="1"/>
+      <c r="GE52" s="1"/>
+      <c r="GF52" s="1"/>
+      <c r="GG52" s="1"/>
+      <c r="GH52" s="1"/>
+      <c r="GI52" s="1"/>
+      <c r="GJ52" s="1"/>
+      <c r="GK52" s="1"/>
+      <c r="GL52" s="1"/>
+      <c r="GM52" s="1"/>
+      <c r="GN52" s="1"/>
+      <c r="GO52" s="1"/>
+      <c r="GP52" s="1"/>
+      <c r="GQ52" s="1"/>
+      <c r="GR52" s="1"/>
+      <c r="GS52" s="1"/>
+      <c r="GT52" s="1"/>
+      <c r="GU52" s="1"/>
+      <c r="GV52" s="1"/>
+      <c r="GW52" s="1"/>
+      <c r="GX52" s="1"/>
+      <c r="GY52" s="1"/>
+      <c r="GZ52" s="1"/>
+      <c r="HA52" s="1"/>
+      <c r="HB52" s="1"/>
+      <c r="HC52" s="1"/>
+      <c r="HD52" s="1"/>
+      <c r="HE52" s="1"/>
+      <c r="HF52" s="1"/>
+      <c r="HG52" s="1"/>
+      <c r="HH52" s="1"/>
+      <c r="HI52" s="1"/>
+      <c r="HJ52" s="1"/>
+      <c r="HK52" s="1"/>
+      <c r="HL52" s="1"/>
+      <c r="HM52" s="1"/>
+      <c r="HN52" s="1"/>
+      <c r="HO52" s="1"/>
+      <c r="HP52" s="1"/>
+      <c r="HQ52" s="1"/>
+      <c r="HR52" s="1"/>
+      <c r="HS52" s="1"/>
+      <c r="HT52" s="1"/>
+      <c r="HU52" s="1"/>
+      <c r="HV52" s="1"/>
+      <c r="HW52" s="1"/>
+      <c r="HX52" s="1"/>
+      <c r="HY52" s="1"/>
+      <c r="HZ52" s="1"/>
+      <c r="IA52" s="1"/>
+      <c r="IB52" s="1"/>
+      <c r="IC52" s="1"/>
+      <c r="ID52" s="1"/>
+      <c r="IE52" s="1"/>
+      <c r="IF52" s="1"/>
+      <c r="IG52" s="1"/>
+      <c r="IH52" s="1"/>
+      <c r="II52" s="1"/>
+      <c r="IJ52" s="1"/>
+      <c r="IK52" s="1"/>
+      <c r="IL52" s="1"/>
+      <c r="IM52" s="1"/>
+      <c r="IN52" s="1"/>
+      <c r="IO52" s="1"/>
+      <c r="IP52" s="1"/>
+      <c r="IQ52" s="1"/>
+      <c r="IR52" s="1"/>
+      <c r="IS52" s="1"/>
+      <c r="IT52" s="1"/>
+      <c r="IU52" s="1"/>
+      <c r="IV52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K53" s="1"/>
@@ -29397,10 +29401,10 @@
       <c r="H56" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="11" t="s">
         <v>448</v>
       </c>
     </row>
@@ -29408,10 +29412,10 @@
       <c r="H57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="11" t="s">
         <v>450</v>
       </c>
     </row>
@@ -29427,10 +29431,10 @@
       <c r="H59" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="11" t="s">
         <v>452</v>
       </c>
     </row>
@@ -29438,10 +29442,10 @@
       <c r="H60" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="11" t="s">
         <v>454</v>
       </c>
     </row>
@@ -29449,10 +29453,10 @@
       <c r="H61" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="11" t="s">
         <v>456</v>
       </c>
     </row>
@@ -29468,10 +29472,10 @@
       <c r="H63" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="11" t="s">
         <v>458</v>
       </c>
     </row>
@@ -29479,10 +29483,10 @@
       <c r="H64" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="11" t="s">
         <v>460</v>
       </c>
     </row>
@@ -29490,10 +29494,10 @@
       <c r="H65" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="11" t="s">
         <v>462</v>
       </c>
     </row>
@@ -29501,10 +29505,10 @@
       <c r="H66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -29816,252 +29820,252 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="M80" s="0"/>
-      <c r="N80" s="0"/>
-      <c r="O80" s="0"/>
-      <c r="P80" s="0"/>
-      <c r="Q80" s="0"/>
-      <c r="R80" s="0"/>
-      <c r="S80" s="0"/>
-      <c r="T80" s="0"/>
-      <c r="U80" s="0"/>
-      <c r="V80" s="0"/>
-      <c r="W80" s="0"/>
-      <c r="X80" s="0"/>
-      <c r="Y80" s="0"/>
-      <c r="Z80" s="0"/>
-      <c r="AA80" s="0"/>
-      <c r="AB80" s="0"/>
-      <c r="AC80" s="0"/>
-      <c r="AD80" s="0"/>
-      <c r="AE80" s="0"/>
-      <c r="AF80" s="0"/>
-      <c r="AG80" s="0"/>
-      <c r="AH80" s="0"/>
-      <c r="AI80" s="0"/>
-      <c r="AJ80" s="0"/>
-      <c r="AK80" s="0"/>
-      <c r="AL80" s="0"/>
-      <c r="AM80" s="0"/>
-      <c r="AN80" s="0"/>
-      <c r="AO80" s="0"/>
-      <c r="AP80" s="0"/>
-      <c r="AQ80" s="0"/>
-      <c r="AR80" s="0"/>
-      <c r="AS80" s="0"/>
-      <c r="AT80" s="0"/>
-      <c r="AU80" s="0"/>
-      <c r="AV80" s="0"/>
-      <c r="AW80" s="0"/>
-      <c r="AX80" s="0"/>
-      <c r="AY80" s="0"/>
-      <c r="AZ80" s="0"/>
-      <c r="BA80" s="0"/>
-      <c r="BB80" s="0"/>
-      <c r="BC80" s="0"/>
-      <c r="BD80" s="0"/>
-      <c r="BE80" s="0"/>
-      <c r="BF80" s="0"/>
-      <c r="BG80" s="0"/>
-      <c r="BH80" s="0"/>
-      <c r="BI80" s="0"/>
-      <c r="BJ80" s="0"/>
-      <c r="BK80" s="0"/>
-      <c r="BL80" s="0"/>
-      <c r="BM80" s="0"/>
-      <c r="BN80" s="0"/>
-      <c r="BO80" s="0"/>
-      <c r="BP80" s="0"/>
-      <c r="BQ80" s="0"/>
-      <c r="BR80" s="0"/>
-      <c r="BS80" s="0"/>
-      <c r="BT80" s="0"/>
-      <c r="BU80" s="0"/>
-      <c r="BV80" s="0"/>
-      <c r="BW80" s="0"/>
-      <c r="BX80" s="0"/>
-      <c r="BY80" s="0"/>
-      <c r="BZ80" s="0"/>
-      <c r="CA80" s="0"/>
-      <c r="CB80" s="0"/>
-      <c r="CC80" s="0"/>
-      <c r="CD80" s="0"/>
-      <c r="CE80" s="0"/>
-      <c r="CF80" s="0"/>
-      <c r="CG80" s="0"/>
-      <c r="CH80" s="0"/>
-      <c r="CI80" s="0"/>
-      <c r="CJ80" s="0"/>
-      <c r="CK80" s="0"/>
-      <c r="CL80" s="0"/>
-      <c r="CM80" s="0"/>
-      <c r="CN80" s="0"/>
-      <c r="CO80" s="0"/>
-      <c r="CP80" s="0"/>
-      <c r="CQ80" s="0"/>
-      <c r="CR80" s="0"/>
-      <c r="CS80" s="0"/>
-      <c r="CT80" s="0"/>
-      <c r="CU80" s="0"/>
-      <c r="CV80" s="0"/>
-      <c r="CW80" s="0"/>
-      <c r="CX80" s="0"/>
-      <c r="CY80" s="0"/>
-      <c r="CZ80" s="0"/>
-      <c r="DA80" s="0"/>
-      <c r="DB80" s="0"/>
-      <c r="DC80" s="0"/>
-      <c r="DD80" s="0"/>
-      <c r="DE80" s="0"/>
-      <c r="DF80" s="0"/>
-      <c r="DG80" s="0"/>
-      <c r="DH80" s="0"/>
-      <c r="DI80" s="0"/>
-      <c r="DJ80" s="0"/>
-      <c r="DK80" s="0"/>
-      <c r="DL80" s="0"/>
-      <c r="DM80" s="0"/>
-      <c r="DN80" s="0"/>
-      <c r="DO80" s="0"/>
-      <c r="DP80" s="0"/>
-      <c r="DQ80" s="0"/>
-      <c r="DR80" s="0"/>
-      <c r="DS80" s="0"/>
-      <c r="DT80" s="0"/>
-      <c r="DU80" s="0"/>
-      <c r="DV80" s="0"/>
-      <c r="DW80" s="0"/>
-      <c r="DX80" s="0"/>
-      <c r="DY80" s="0"/>
-      <c r="DZ80" s="0"/>
-      <c r="EA80" s="0"/>
-      <c r="EB80" s="0"/>
-      <c r="EC80" s="0"/>
-      <c r="ED80" s="0"/>
-      <c r="EE80" s="0"/>
-      <c r="EF80" s="0"/>
-      <c r="EG80" s="0"/>
-      <c r="EH80" s="0"/>
-      <c r="EI80" s="0"/>
-      <c r="EJ80" s="0"/>
-      <c r="EK80" s="0"/>
-      <c r="EL80" s="0"/>
-      <c r="EM80" s="0"/>
-      <c r="EN80" s="0"/>
-      <c r="EO80" s="0"/>
-      <c r="EP80" s="0"/>
-      <c r="EQ80" s="0"/>
-      <c r="ER80" s="0"/>
-      <c r="ES80" s="0"/>
-      <c r="ET80" s="0"/>
-      <c r="EU80" s="0"/>
-      <c r="EV80" s="0"/>
-      <c r="EW80" s="0"/>
-      <c r="EX80" s="0"/>
-      <c r="EY80" s="0"/>
-      <c r="EZ80" s="0"/>
-      <c r="FA80" s="0"/>
-      <c r="FB80" s="0"/>
-      <c r="FC80" s="0"/>
-      <c r="FD80" s="0"/>
-      <c r="FE80" s="0"/>
-      <c r="FF80" s="0"/>
-      <c r="FG80" s="0"/>
-      <c r="FH80" s="0"/>
-      <c r="FI80" s="0"/>
-      <c r="FJ80" s="0"/>
-      <c r="FK80" s="0"/>
-      <c r="FL80" s="0"/>
-      <c r="FM80" s="0"/>
-      <c r="FN80" s="0"/>
-      <c r="FO80" s="0"/>
-      <c r="FP80" s="0"/>
-      <c r="FQ80" s="0"/>
-      <c r="FR80" s="0"/>
-      <c r="FS80" s="0"/>
-      <c r="FT80" s="0"/>
-      <c r="FU80" s="0"/>
-      <c r="FV80" s="0"/>
-      <c r="FW80" s="0"/>
-      <c r="FX80" s="0"/>
-      <c r="FY80" s="0"/>
-      <c r="FZ80" s="0"/>
-      <c r="GA80" s="0"/>
-      <c r="GB80" s="0"/>
-      <c r="GC80" s="0"/>
-      <c r="GD80" s="0"/>
-      <c r="GE80" s="0"/>
-      <c r="GF80" s="0"/>
-      <c r="GG80" s="0"/>
-      <c r="GH80" s="0"/>
-      <c r="GI80" s="0"/>
-      <c r="GJ80" s="0"/>
-      <c r="GK80" s="0"/>
-      <c r="GL80" s="0"/>
-      <c r="GM80" s="0"/>
-      <c r="GN80" s="0"/>
-      <c r="GO80" s="0"/>
-      <c r="GP80" s="0"/>
-      <c r="GQ80" s="0"/>
-      <c r="GR80" s="0"/>
-      <c r="GS80" s="0"/>
-      <c r="GT80" s="0"/>
-      <c r="GU80" s="0"/>
-      <c r="GV80" s="0"/>
-      <c r="GW80" s="0"/>
-      <c r="GX80" s="0"/>
-      <c r="GY80" s="0"/>
-      <c r="GZ80" s="0"/>
-      <c r="HA80" s="0"/>
-      <c r="HB80" s="0"/>
-      <c r="HC80" s="0"/>
-      <c r="HD80" s="0"/>
-      <c r="HE80" s="0"/>
-      <c r="HF80" s="0"/>
-      <c r="HG80" s="0"/>
-      <c r="HH80" s="0"/>
-      <c r="HI80" s="0"/>
-      <c r="HJ80" s="0"/>
-      <c r="HK80" s="0"/>
-      <c r="HL80" s="0"/>
-      <c r="HM80" s="0"/>
-      <c r="HN80" s="0"/>
-      <c r="HO80" s="0"/>
-      <c r="HP80" s="0"/>
-      <c r="HQ80" s="0"/>
-      <c r="HR80" s="0"/>
-      <c r="HS80" s="0"/>
-      <c r="HT80" s="0"/>
-      <c r="HU80" s="0"/>
-      <c r="HV80" s="0"/>
-      <c r="HW80" s="0"/>
-      <c r="HX80" s="0"/>
-      <c r="HY80" s="0"/>
-      <c r="HZ80" s="0"/>
-      <c r="IA80" s="0"/>
-      <c r="IB80" s="0"/>
-      <c r="IC80" s="0"/>
-      <c r="ID80" s="0"/>
-      <c r="IE80" s="0"/>
-      <c r="IF80" s="0"/>
-      <c r="IG80" s="0"/>
-      <c r="IH80" s="0"/>
-      <c r="II80" s="0"/>
-      <c r="IJ80" s="0"/>
-      <c r="IK80" s="0"/>
-      <c r="IL80" s="0"/>
-      <c r="IM80" s="0"/>
-      <c r="IN80" s="0"/>
-      <c r="IO80" s="0"/>
-      <c r="IP80" s="0"/>
-      <c r="IQ80" s="0"/>
-      <c r="IR80" s="0"/>
-      <c r="IS80" s="0"/>
-      <c r="IT80" s="0"/>
-      <c r="IU80" s="0"/>
-      <c r="IV80" s="0"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80" s="1"/>
+      <c r="CV80" s="1"/>
+      <c r="CW80" s="1"/>
+      <c r="CX80" s="1"/>
+      <c r="CY80" s="1"/>
+      <c r="CZ80" s="1"/>
+      <c r="DA80" s="1"/>
+      <c r="DB80" s="1"/>
+      <c r="DC80" s="1"/>
+      <c r="DD80" s="1"/>
+      <c r="DE80" s="1"/>
+      <c r="DF80" s="1"/>
+      <c r="DG80" s="1"/>
+      <c r="DH80" s="1"/>
+      <c r="DI80" s="1"/>
+      <c r="DJ80" s="1"/>
+      <c r="DK80" s="1"/>
+      <c r="DL80" s="1"/>
+      <c r="DM80" s="1"/>
+      <c r="DN80" s="1"/>
+      <c r="DO80" s="1"/>
+      <c r="DP80" s="1"/>
+      <c r="DQ80" s="1"/>
+      <c r="DR80" s="1"/>
+      <c r="DS80" s="1"/>
+      <c r="DT80" s="1"/>
+      <c r="DU80" s="1"/>
+      <c r="DV80" s="1"/>
+      <c r="DW80" s="1"/>
+      <c r="DX80" s="1"/>
+      <c r="DY80" s="1"/>
+      <c r="DZ80" s="1"/>
+      <c r="EA80" s="1"/>
+      <c r="EB80" s="1"/>
+      <c r="EC80" s="1"/>
+      <c r="ED80" s="1"/>
+      <c r="EE80" s="1"/>
+      <c r="EF80" s="1"/>
+      <c r="EG80" s="1"/>
+      <c r="EH80" s="1"/>
+      <c r="EI80" s="1"/>
+      <c r="EJ80" s="1"/>
+      <c r="EK80" s="1"/>
+      <c r="EL80" s="1"/>
+      <c r="EM80" s="1"/>
+      <c r="EN80" s="1"/>
+      <c r="EO80" s="1"/>
+      <c r="EP80" s="1"/>
+      <c r="EQ80" s="1"/>
+      <c r="ER80" s="1"/>
+      <c r="ES80" s="1"/>
+      <c r="ET80" s="1"/>
+      <c r="EU80" s="1"/>
+      <c r="EV80" s="1"/>
+      <c r="EW80" s="1"/>
+      <c r="EX80" s="1"/>
+      <c r="EY80" s="1"/>
+      <c r="EZ80" s="1"/>
+      <c r="FA80" s="1"/>
+      <c r="FB80" s="1"/>
+      <c r="FC80" s="1"/>
+      <c r="FD80" s="1"/>
+      <c r="FE80" s="1"/>
+      <c r="FF80" s="1"/>
+      <c r="FG80" s="1"/>
+      <c r="FH80" s="1"/>
+      <c r="FI80" s="1"/>
+      <c r="FJ80" s="1"/>
+      <c r="FK80" s="1"/>
+      <c r="FL80" s="1"/>
+      <c r="FM80" s="1"/>
+      <c r="FN80" s="1"/>
+      <c r="FO80" s="1"/>
+      <c r="FP80" s="1"/>
+      <c r="FQ80" s="1"/>
+      <c r="FR80" s="1"/>
+      <c r="FS80" s="1"/>
+      <c r="FT80" s="1"/>
+      <c r="FU80" s="1"/>
+      <c r="FV80" s="1"/>
+      <c r="FW80" s="1"/>
+      <c r="FX80" s="1"/>
+      <c r="FY80" s="1"/>
+      <c r="FZ80" s="1"/>
+      <c r="GA80" s="1"/>
+      <c r="GB80" s="1"/>
+      <c r="GC80" s="1"/>
+      <c r="GD80" s="1"/>
+      <c r="GE80" s="1"/>
+      <c r="GF80" s="1"/>
+      <c r="GG80" s="1"/>
+      <c r="GH80" s="1"/>
+      <c r="GI80" s="1"/>
+      <c r="GJ80" s="1"/>
+      <c r="GK80" s="1"/>
+      <c r="GL80" s="1"/>
+      <c r="GM80" s="1"/>
+      <c r="GN80" s="1"/>
+      <c r="GO80" s="1"/>
+      <c r="GP80" s="1"/>
+      <c r="GQ80" s="1"/>
+      <c r="GR80" s="1"/>
+      <c r="GS80" s="1"/>
+      <c r="GT80" s="1"/>
+      <c r="GU80" s="1"/>
+      <c r="GV80" s="1"/>
+      <c r="GW80" s="1"/>
+      <c r="GX80" s="1"/>
+      <c r="GY80" s="1"/>
+      <c r="GZ80" s="1"/>
+      <c r="HA80" s="1"/>
+      <c r="HB80" s="1"/>
+      <c r="HC80" s="1"/>
+      <c r="HD80" s="1"/>
+      <c r="HE80" s="1"/>
+      <c r="HF80" s="1"/>
+      <c r="HG80" s="1"/>
+      <c r="HH80" s="1"/>
+      <c r="HI80" s="1"/>
+      <c r="HJ80" s="1"/>
+      <c r="HK80" s="1"/>
+      <c r="HL80" s="1"/>
+      <c r="HM80" s="1"/>
+      <c r="HN80" s="1"/>
+      <c r="HO80" s="1"/>
+      <c r="HP80" s="1"/>
+      <c r="HQ80" s="1"/>
+      <c r="HR80" s="1"/>
+      <c r="HS80" s="1"/>
+      <c r="HT80" s="1"/>
+      <c r="HU80" s="1"/>
+      <c r="HV80" s="1"/>
+      <c r="HW80" s="1"/>
+      <c r="HX80" s="1"/>
+      <c r="HY80" s="1"/>
+      <c r="HZ80" s="1"/>
+      <c r="IA80" s="1"/>
+      <c r="IB80" s="1"/>
+      <c r="IC80" s="1"/>
+      <c r="ID80" s="1"/>
+      <c r="IE80" s="1"/>
+      <c r="IF80" s="1"/>
+      <c r="IG80" s="1"/>
+      <c r="IH80" s="1"/>
+      <c r="II80" s="1"/>
+      <c r="IJ80" s="1"/>
+      <c r="IK80" s="1"/>
+      <c r="IL80" s="1"/>
+      <c r="IM80" s="1"/>
+      <c r="IN80" s="1"/>
+      <c r="IO80" s="1"/>
+      <c r="IP80" s="1"/>
+      <c r="IQ80" s="1"/>
+      <c r="IR80" s="1"/>
+      <c r="IS80" s="1"/>
+      <c r="IT80" s="1"/>
+      <c r="IU80" s="1"/>
+      <c r="IV80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K81" s="1"/>
@@ -30898,7 +30902,7 @@
       <c r="H99" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="11" t="s">
         <v>467</v>
       </c>
     </row>
@@ -30906,7 +30910,7 @@
       <c r="H100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="11" t="s">
         <v>468</v>
       </c>
     </row>
@@ -30914,7 +30918,7 @@
       <c r="H101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="11" t="s">
         <v>469</v>
       </c>
     </row>
@@ -30930,7 +30934,7 @@
       <c r="H103" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="11" t="s">
         <v>470</v>
       </c>
     </row>
@@ -30938,7 +30942,7 @@
       <c r="H104" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="11" t="s">
         <v>471</v>
       </c>
     </row>
@@ -30953,262 +30957,262 @@
       <c r="H105" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="11" t="s">
         <v>472</v>
       </c>
       <c r="J105" s="1"/>
-      <c r="K105" s="0"/>
-      <c r="L105" s="0"/>
-      <c r="M105" s="0"/>
-      <c r="N105" s="0"/>
-      <c r="O105" s="0"/>
-      <c r="P105" s="0"/>
-      <c r="Q105" s="0"/>
-      <c r="R105" s="0"/>
-      <c r="S105" s="0"/>
-      <c r="T105" s="0"/>
-      <c r="U105" s="0"/>
-      <c r="V105" s="0"/>
-      <c r="W105" s="0"/>
-      <c r="X105" s="0"/>
-      <c r="Y105" s="0"/>
-      <c r="Z105" s="0"/>
-      <c r="AA105" s="0"/>
-      <c r="AB105" s="0"/>
-      <c r="AC105" s="0"/>
-      <c r="AD105" s="0"/>
-      <c r="AE105" s="0"/>
-      <c r="AF105" s="0"/>
-      <c r="AG105" s="0"/>
-      <c r="AH105" s="0"/>
-      <c r="AI105" s="0"/>
-      <c r="AJ105" s="0"/>
-      <c r="AK105" s="0"/>
-      <c r="AL105" s="0"/>
-      <c r="AM105" s="0"/>
-      <c r="AN105" s="0"/>
-      <c r="AO105" s="0"/>
-      <c r="AP105" s="0"/>
-      <c r="AQ105" s="0"/>
-      <c r="AR105" s="0"/>
-      <c r="AS105" s="0"/>
-      <c r="AT105" s="0"/>
-      <c r="AU105" s="0"/>
-      <c r="AV105" s="0"/>
-      <c r="AW105" s="0"/>
-      <c r="AX105" s="0"/>
-      <c r="AY105" s="0"/>
-      <c r="AZ105" s="0"/>
-      <c r="BA105" s="0"/>
-      <c r="BB105" s="0"/>
-      <c r="BC105" s="0"/>
-      <c r="BD105" s="0"/>
-      <c r="BE105" s="0"/>
-      <c r="BF105" s="0"/>
-      <c r="BG105" s="0"/>
-      <c r="BH105" s="0"/>
-      <c r="BI105" s="0"/>
-      <c r="BJ105" s="0"/>
-      <c r="BK105" s="0"/>
-      <c r="BL105" s="0"/>
-      <c r="BM105" s="0"/>
-      <c r="BN105" s="0"/>
-      <c r="BO105" s="0"/>
-      <c r="BP105" s="0"/>
-      <c r="BQ105" s="0"/>
-      <c r="BR105" s="0"/>
-      <c r="BS105" s="0"/>
-      <c r="BT105" s="0"/>
-      <c r="BU105" s="0"/>
-      <c r="BV105" s="0"/>
-      <c r="BW105" s="0"/>
-      <c r="BX105" s="0"/>
-      <c r="BY105" s="0"/>
-      <c r="BZ105" s="0"/>
-      <c r="CA105" s="0"/>
-      <c r="CB105" s="0"/>
-      <c r="CC105" s="0"/>
-      <c r="CD105" s="0"/>
-      <c r="CE105" s="0"/>
-      <c r="CF105" s="0"/>
-      <c r="CG105" s="0"/>
-      <c r="CH105" s="0"/>
-      <c r="CI105" s="0"/>
-      <c r="CJ105" s="0"/>
-      <c r="CK105" s="0"/>
-      <c r="CL105" s="0"/>
-      <c r="CM105" s="0"/>
-      <c r="CN105" s="0"/>
-      <c r="CO105" s="0"/>
-      <c r="CP105" s="0"/>
-      <c r="CQ105" s="0"/>
-      <c r="CR105" s="0"/>
-      <c r="CS105" s="0"/>
-      <c r="CT105" s="0"/>
-      <c r="CU105" s="0"/>
-      <c r="CV105" s="0"/>
-      <c r="CW105" s="0"/>
-      <c r="CX105" s="0"/>
-      <c r="CY105" s="0"/>
-      <c r="CZ105" s="0"/>
-      <c r="DA105" s="0"/>
-      <c r="DB105" s="0"/>
-      <c r="DC105" s="0"/>
-      <c r="DD105" s="0"/>
-      <c r="DE105" s="0"/>
-      <c r="DF105" s="0"/>
-      <c r="DG105" s="0"/>
-      <c r="DH105" s="0"/>
-      <c r="DI105" s="0"/>
-      <c r="DJ105" s="0"/>
-      <c r="DK105" s="0"/>
-      <c r="DL105" s="0"/>
-      <c r="DM105" s="0"/>
-      <c r="DN105" s="0"/>
-      <c r="DO105" s="0"/>
-      <c r="DP105" s="0"/>
-      <c r="DQ105" s="0"/>
-      <c r="DR105" s="0"/>
-      <c r="DS105" s="0"/>
-      <c r="DT105" s="0"/>
-      <c r="DU105" s="0"/>
-      <c r="DV105" s="0"/>
-      <c r="DW105" s="0"/>
-      <c r="DX105" s="0"/>
-      <c r="DY105" s="0"/>
-      <c r="DZ105" s="0"/>
-      <c r="EA105" s="0"/>
-      <c r="EB105" s="0"/>
-      <c r="EC105" s="0"/>
-      <c r="ED105" s="0"/>
-      <c r="EE105" s="0"/>
-      <c r="EF105" s="0"/>
-      <c r="EG105" s="0"/>
-      <c r="EH105" s="0"/>
-      <c r="EI105" s="0"/>
-      <c r="EJ105" s="0"/>
-      <c r="EK105" s="0"/>
-      <c r="EL105" s="0"/>
-      <c r="EM105" s="0"/>
-      <c r="EN105" s="0"/>
-      <c r="EO105" s="0"/>
-      <c r="EP105" s="0"/>
-      <c r="EQ105" s="0"/>
-      <c r="ER105" s="0"/>
-      <c r="ES105" s="0"/>
-      <c r="ET105" s="0"/>
-      <c r="EU105" s="0"/>
-      <c r="EV105" s="0"/>
-      <c r="EW105" s="0"/>
-      <c r="EX105" s="0"/>
-      <c r="EY105" s="0"/>
-      <c r="EZ105" s="0"/>
-      <c r="FA105" s="0"/>
-      <c r="FB105" s="0"/>
-      <c r="FC105" s="0"/>
-      <c r="FD105" s="0"/>
-      <c r="FE105" s="0"/>
-      <c r="FF105" s="0"/>
-      <c r="FG105" s="0"/>
-      <c r="FH105" s="0"/>
-      <c r="FI105" s="0"/>
-      <c r="FJ105" s="0"/>
-      <c r="FK105" s="0"/>
-      <c r="FL105" s="0"/>
-      <c r="FM105" s="0"/>
-      <c r="FN105" s="0"/>
-      <c r="FO105" s="0"/>
-      <c r="FP105" s="0"/>
-      <c r="FQ105" s="0"/>
-      <c r="FR105" s="0"/>
-      <c r="FS105" s="0"/>
-      <c r="FT105" s="0"/>
-      <c r="FU105" s="0"/>
-      <c r="FV105" s="0"/>
-      <c r="FW105" s="0"/>
-      <c r="FX105" s="0"/>
-      <c r="FY105" s="0"/>
-      <c r="FZ105" s="0"/>
-      <c r="GA105" s="0"/>
-      <c r="GB105" s="0"/>
-      <c r="GC105" s="0"/>
-      <c r="GD105" s="0"/>
-      <c r="GE105" s="0"/>
-      <c r="GF105" s="0"/>
-      <c r="GG105" s="0"/>
-      <c r="GH105" s="0"/>
-      <c r="GI105" s="0"/>
-      <c r="GJ105" s="0"/>
-      <c r="GK105" s="0"/>
-      <c r="GL105" s="0"/>
-      <c r="GM105" s="0"/>
-      <c r="GN105" s="0"/>
-      <c r="GO105" s="0"/>
-      <c r="GP105" s="0"/>
-      <c r="GQ105" s="0"/>
-      <c r="GR105" s="0"/>
-      <c r="GS105" s="0"/>
-      <c r="GT105" s="0"/>
-      <c r="GU105" s="0"/>
-      <c r="GV105" s="0"/>
-      <c r="GW105" s="0"/>
-      <c r="GX105" s="0"/>
-      <c r="GY105" s="0"/>
-      <c r="GZ105" s="0"/>
-      <c r="HA105" s="0"/>
-      <c r="HB105" s="0"/>
-      <c r="HC105" s="0"/>
-      <c r="HD105" s="0"/>
-      <c r="HE105" s="0"/>
-      <c r="HF105" s="0"/>
-      <c r="HG105" s="0"/>
-      <c r="HH105" s="0"/>
-      <c r="HI105" s="0"/>
-      <c r="HJ105" s="0"/>
-      <c r="HK105" s="0"/>
-      <c r="HL105" s="0"/>
-      <c r="HM105" s="0"/>
-      <c r="HN105" s="0"/>
-      <c r="HO105" s="0"/>
-      <c r="HP105" s="0"/>
-      <c r="HQ105" s="0"/>
-      <c r="HR105" s="0"/>
-      <c r="HS105" s="0"/>
-      <c r="HT105" s="0"/>
-      <c r="HU105" s="0"/>
-      <c r="HV105" s="0"/>
-      <c r="HW105" s="0"/>
-      <c r="HX105" s="0"/>
-      <c r="HY105" s="0"/>
-      <c r="HZ105" s="0"/>
-      <c r="IA105" s="0"/>
-      <c r="IB105" s="0"/>
-      <c r="IC105" s="0"/>
-      <c r="ID105" s="0"/>
-      <c r="IE105" s="0"/>
-      <c r="IF105" s="0"/>
-      <c r="IG105" s="0"/>
-      <c r="IH105" s="0"/>
-      <c r="II105" s="0"/>
-      <c r="IJ105" s="0"/>
-      <c r="IK105" s="0"/>
-      <c r="IL105" s="0"/>
-      <c r="IM105" s="0"/>
-      <c r="IN105" s="0"/>
-      <c r="IO105" s="0"/>
-      <c r="IP105" s="0"/>
-      <c r="IQ105" s="0"/>
-      <c r="IR105" s="0"/>
-      <c r="IS105" s="0"/>
-      <c r="IT105" s="0"/>
-      <c r="IU105" s="0"/>
-      <c r="IV105" s="0"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BF105" s="1"/>
+      <c r="BG105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BJ105" s="1"/>
+      <c r="BK105" s="1"/>
+      <c r="BL105" s="1"/>
+      <c r="BM105" s="1"/>
+      <c r="BN105" s="1"/>
+      <c r="BO105" s="1"/>
+      <c r="BP105" s="1"/>
+      <c r="BQ105" s="1"/>
+      <c r="BR105" s="1"/>
+      <c r="BS105" s="1"/>
+      <c r="BT105" s="1"/>
+      <c r="BU105" s="1"/>
+      <c r="BV105" s="1"/>
+      <c r="BW105" s="1"/>
+      <c r="BX105" s="1"/>
+      <c r="BY105" s="1"/>
+      <c r="BZ105" s="1"/>
+      <c r="CA105" s="1"/>
+      <c r="CB105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CD105" s="1"/>
+      <c r="CE105" s="1"/>
+      <c r="CF105" s="1"/>
+      <c r="CG105" s="1"/>
+      <c r="CH105" s="1"/>
+      <c r="CI105" s="1"/>
+      <c r="CJ105" s="1"/>
+      <c r="CK105" s="1"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
+      <c r="CT105" s="1"/>
+      <c r="CU105" s="1"/>
+      <c r="CV105" s="1"/>
+      <c r="CW105" s="1"/>
+      <c r="CX105" s="1"/>
+      <c r="CY105" s="1"/>
+      <c r="CZ105" s="1"/>
+      <c r="DA105" s="1"/>
+      <c r="DB105" s="1"/>
+      <c r="DC105" s="1"/>
+      <c r="DD105" s="1"/>
+      <c r="DE105" s="1"/>
+      <c r="DF105" s="1"/>
+      <c r="DG105" s="1"/>
+      <c r="DH105" s="1"/>
+      <c r="DI105" s="1"/>
+      <c r="DJ105" s="1"/>
+      <c r="DK105" s="1"/>
+      <c r="DL105" s="1"/>
+      <c r="DM105" s="1"/>
+      <c r="DN105" s="1"/>
+      <c r="DO105" s="1"/>
+      <c r="DP105" s="1"/>
+      <c r="DQ105" s="1"/>
+      <c r="DR105" s="1"/>
+      <c r="DS105" s="1"/>
+      <c r="DT105" s="1"/>
+      <c r="DU105" s="1"/>
+      <c r="DV105" s="1"/>
+      <c r="DW105" s="1"/>
+      <c r="DX105" s="1"/>
+      <c r="DY105" s="1"/>
+      <c r="DZ105" s="1"/>
+      <c r="EA105" s="1"/>
+      <c r="EB105" s="1"/>
+      <c r="EC105" s="1"/>
+      <c r="ED105" s="1"/>
+      <c r="EE105" s="1"/>
+      <c r="EF105" s="1"/>
+      <c r="EG105" s="1"/>
+      <c r="EH105" s="1"/>
+      <c r="EI105" s="1"/>
+      <c r="EJ105" s="1"/>
+      <c r="EK105" s="1"/>
+      <c r="EL105" s="1"/>
+      <c r="EM105" s="1"/>
+      <c r="EN105" s="1"/>
+      <c r="EO105" s="1"/>
+      <c r="EP105" s="1"/>
+      <c r="EQ105" s="1"/>
+      <c r="ER105" s="1"/>
+      <c r="ES105" s="1"/>
+      <c r="ET105" s="1"/>
+      <c r="EU105" s="1"/>
+      <c r="EV105" s="1"/>
+      <c r="EW105" s="1"/>
+      <c r="EX105" s="1"/>
+      <c r="EY105" s="1"/>
+      <c r="EZ105" s="1"/>
+      <c r="FA105" s="1"/>
+      <c r="FB105" s="1"/>
+      <c r="FC105" s="1"/>
+      <c r="FD105" s="1"/>
+      <c r="FE105" s="1"/>
+      <c r="FF105" s="1"/>
+      <c r="FG105" s="1"/>
+      <c r="FH105" s="1"/>
+      <c r="FI105" s="1"/>
+      <c r="FJ105" s="1"/>
+      <c r="FK105" s="1"/>
+      <c r="FL105" s="1"/>
+      <c r="FM105" s="1"/>
+      <c r="FN105" s="1"/>
+      <c r="FO105" s="1"/>
+      <c r="FP105" s="1"/>
+      <c r="FQ105" s="1"/>
+      <c r="FR105" s="1"/>
+      <c r="FS105" s="1"/>
+      <c r="FT105" s="1"/>
+      <c r="FU105" s="1"/>
+      <c r="FV105" s="1"/>
+      <c r="FW105" s="1"/>
+      <c r="FX105" s="1"/>
+      <c r="FY105" s="1"/>
+      <c r="FZ105" s="1"/>
+      <c r="GA105" s="1"/>
+      <c r="GB105" s="1"/>
+      <c r="GC105" s="1"/>
+      <c r="GD105" s="1"/>
+      <c r="GE105" s="1"/>
+      <c r="GF105" s="1"/>
+      <c r="GG105" s="1"/>
+      <c r="GH105" s="1"/>
+      <c r="GI105" s="1"/>
+      <c r="GJ105" s="1"/>
+      <c r="GK105" s="1"/>
+      <c r="GL105" s="1"/>
+      <c r="GM105" s="1"/>
+      <c r="GN105" s="1"/>
+      <c r="GO105" s="1"/>
+      <c r="GP105" s="1"/>
+      <c r="GQ105" s="1"/>
+      <c r="GR105" s="1"/>
+      <c r="GS105" s="1"/>
+      <c r="GT105" s="1"/>
+      <c r="GU105" s="1"/>
+      <c r="GV105" s="1"/>
+      <c r="GW105" s="1"/>
+      <c r="GX105" s="1"/>
+      <c r="GY105" s="1"/>
+      <c r="GZ105" s="1"/>
+      <c r="HA105" s="1"/>
+      <c r="HB105" s="1"/>
+      <c r="HC105" s="1"/>
+      <c r="HD105" s="1"/>
+      <c r="HE105" s="1"/>
+      <c r="HF105" s="1"/>
+      <c r="HG105" s="1"/>
+      <c r="HH105" s="1"/>
+      <c r="HI105" s="1"/>
+      <c r="HJ105" s="1"/>
+      <c r="HK105" s="1"/>
+      <c r="HL105" s="1"/>
+      <c r="HM105" s="1"/>
+      <c r="HN105" s="1"/>
+      <c r="HO105" s="1"/>
+      <c r="HP105" s="1"/>
+      <c r="HQ105" s="1"/>
+      <c r="HR105" s="1"/>
+      <c r="HS105" s="1"/>
+      <c r="HT105" s="1"/>
+      <c r="HU105" s="1"/>
+      <c r="HV105" s="1"/>
+      <c r="HW105" s="1"/>
+      <c r="HX105" s="1"/>
+      <c r="HY105" s="1"/>
+      <c r="HZ105" s="1"/>
+      <c r="IA105" s="1"/>
+      <c r="IB105" s="1"/>
+      <c r="IC105" s="1"/>
+      <c r="ID105" s="1"/>
+      <c r="IE105" s="1"/>
+      <c r="IF105" s="1"/>
+      <c r="IG105" s="1"/>
+      <c r="IH105" s="1"/>
+      <c r="II105" s="1"/>
+      <c r="IJ105" s="1"/>
+      <c r="IK105" s="1"/>
+      <c r="IL105" s="1"/>
+      <c r="IM105" s="1"/>
+      <c r="IN105" s="1"/>
+      <c r="IO105" s="1"/>
+      <c r="IP105" s="1"/>
+      <c r="IQ105" s="1"/>
+      <c r="IR105" s="1"/>
+      <c r="IS105" s="1"/>
+      <c r="IT105" s="1"/>
+      <c r="IU105" s="1"/>
+      <c r="IV105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H106" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="11" t="s">
         <v>473</v>
       </c>
       <c r="K106" s="1"/>
@@ -31470,7 +31474,7 @@
       <c r="H108" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="11" t="s">
         <v>474</v>
       </c>
       <c r="K108" s="1"/>
@@ -31740,7 +31744,7 @@
       <c r="H111" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="11" t="s">
         <v>476</v>
       </c>
     </row>
@@ -31748,7 +31752,7 @@
       <c r="H112" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="11" t="s">
         <v>477</v>
       </c>
     </row>
@@ -31756,7 +31760,7 @@
       <c r="H113" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="11" t="s">
         <v>478</v>
       </c>
     </row>
@@ -31764,7 +31768,7 @@
       <c r="H114" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I114" s="11" t="s">
         <v>479</v>
       </c>
     </row>
@@ -31772,7 +31776,7 @@
       <c r="H115" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="11" t="s">
         <v>480</v>
       </c>
       <c r="L115" s="1"/>
@@ -31797,7 +31801,7 @@
       <c r="H118" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="I118" s="11" t="s">
         <v>482</v>
       </c>
     </row>
@@ -31805,7 +31809,7 @@
       <c r="H119" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I119" s="11" t="s">
         <v>483</v>
       </c>
     </row>
@@ -31813,7 +31817,7 @@
       <c r="H120" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I120" s="11" t="s">
         <v>484</v>
       </c>
     </row>
@@ -31821,7 +31825,7 @@
       <c r="H121" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="I121" s="11" t="s">
         <v>485</v>
       </c>
     </row>
@@ -31829,7 +31833,7 @@
       <c r="H122" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I122" s="11" t="s">
         <v>486</v>
       </c>
     </row>
@@ -32156,252 +32160,252 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
-      <c r="K135" s="0"/>
-      <c r="L135" s="0"/>
-      <c r="M135" s="0"/>
-      <c r="N135" s="0"/>
-      <c r="O135" s="0"/>
-      <c r="P135" s="0"/>
-      <c r="Q135" s="0"/>
-      <c r="R135" s="0"/>
-      <c r="S135" s="0"/>
-      <c r="T135" s="0"/>
-      <c r="U135" s="0"/>
-      <c r="V135" s="0"/>
-      <c r="W135" s="0"/>
-      <c r="X135" s="0"/>
-      <c r="Y135" s="0"/>
-      <c r="Z135" s="0"/>
-      <c r="AA135" s="0"/>
-      <c r="AB135" s="0"/>
-      <c r="AC135" s="0"/>
-      <c r="AD135" s="0"/>
-      <c r="AE135" s="0"/>
-      <c r="AF135" s="0"/>
-      <c r="AG135" s="0"/>
-      <c r="AH135" s="0"/>
-      <c r="AI135" s="0"/>
-      <c r="AJ135" s="0"/>
-      <c r="AK135" s="0"/>
-      <c r="AL135" s="0"/>
-      <c r="AM135" s="0"/>
-      <c r="AN135" s="0"/>
-      <c r="AO135" s="0"/>
-      <c r="AP135" s="0"/>
-      <c r="AQ135" s="0"/>
-      <c r="AR135" s="0"/>
-      <c r="AS135" s="0"/>
-      <c r="AT135" s="0"/>
-      <c r="AU135" s="0"/>
-      <c r="AV135" s="0"/>
-      <c r="AW135" s="0"/>
-      <c r="AX135" s="0"/>
-      <c r="AY135" s="0"/>
-      <c r="AZ135" s="0"/>
-      <c r="BA135" s="0"/>
-      <c r="BB135" s="0"/>
-      <c r="BC135" s="0"/>
-      <c r="BD135" s="0"/>
-      <c r="BE135" s="0"/>
-      <c r="BF135" s="0"/>
-      <c r="BG135" s="0"/>
-      <c r="BH135" s="0"/>
-      <c r="BI135" s="0"/>
-      <c r="BJ135" s="0"/>
-      <c r="BK135" s="0"/>
-      <c r="BL135" s="0"/>
-      <c r="BM135" s="0"/>
-      <c r="BN135" s="0"/>
-      <c r="BO135" s="0"/>
-      <c r="BP135" s="0"/>
-      <c r="BQ135" s="0"/>
-      <c r="BR135" s="0"/>
-      <c r="BS135" s="0"/>
-      <c r="BT135" s="0"/>
-      <c r="BU135" s="0"/>
-      <c r="BV135" s="0"/>
-      <c r="BW135" s="0"/>
-      <c r="BX135" s="0"/>
-      <c r="BY135" s="0"/>
-      <c r="BZ135" s="0"/>
-      <c r="CA135" s="0"/>
-      <c r="CB135" s="0"/>
-      <c r="CC135" s="0"/>
-      <c r="CD135" s="0"/>
-      <c r="CE135" s="0"/>
-      <c r="CF135" s="0"/>
-      <c r="CG135" s="0"/>
-      <c r="CH135" s="0"/>
-      <c r="CI135" s="0"/>
-      <c r="CJ135" s="0"/>
-      <c r="CK135" s="0"/>
-      <c r="CL135" s="0"/>
-      <c r="CM135" s="0"/>
-      <c r="CN135" s="0"/>
-      <c r="CO135" s="0"/>
-      <c r="CP135" s="0"/>
-      <c r="CQ135" s="0"/>
-      <c r="CR135" s="0"/>
-      <c r="CS135" s="0"/>
-      <c r="CT135" s="0"/>
-      <c r="CU135" s="0"/>
-      <c r="CV135" s="0"/>
-      <c r="CW135" s="0"/>
-      <c r="CX135" s="0"/>
-      <c r="CY135" s="0"/>
-      <c r="CZ135" s="0"/>
-      <c r="DA135" s="0"/>
-      <c r="DB135" s="0"/>
-      <c r="DC135" s="0"/>
-      <c r="DD135" s="0"/>
-      <c r="DE135" s="0"/>
-      <c r="DF135" s="0"/>
-      <c r="DG135" s="0"/>
-      <c r="DH135" s="0"/>
-      <c r="DI135" s="0"/>
-      <c r="DJ135" s="0"/>
-      <c r="DK135" s="0"/>
-      <c r="DL135" s="0"/>
-      <c r="DM135" s="0"/>
-      <c r="DN135" s="0"/>
-      <c r="DO135" s="0"/>
-      <c r="DP135" s="0"/>
-      <c r="DQ135" s="0"/>
-      <c r="DR135" s="0"/>
-      <c r="DS135" s="0"/>
-      <c r="DT135" s="0"/>
-      <c r="DU135" s="0"/>
-      <c r="DV135" s="0"/>
-      <c r="DW135" s="0"/>
-      <c r="DX135" s="0"/>
-      <c r="DY135" s="0"/>
-      <c r="DZ135" s="0"/>
-      <c r="EA135" s="0"/>
-      <c r="EB135" s="0"/>
-      <c r="EC135" s="0"/>
-      <c r="ED135" s="0"/>
-      <c r="EE135" s="0"/>
-      <c r="EF135" s="0"/>
-      <c r="EG135" s="0"/>
-      <c r="EH135" s="0"/>
-      <c r="EI135" s="0"/>
-      <c r="EJ135" s="0"/>
-      <c r="EK135" s="0"/>
-      <c r="EL135" s="0"/>
-      <c r="EM135" s="0"/>
-      <c r="EN135" s="0"/>
-      <c r="EO135" s="0"/>
-      <c r="EP135" s="0"/>
-      <c r="EQ135" s="0"/>
-      <c r="ER135" s="0"/>
-      <c r="ES135" s="0"/>
-      <c r="ET135" s="0"/>
-      <c r="EU135" s="0"/>
-      <c r="EV135" s="0"/>
-      <c r="EW135" s="0"/>
-      <c r="EX135" s="0"/>
-      <c r="EY135" s="0"/>
-      <c r="EZ135" s="0"/>
-      <c r="FA135" s="0"/>
-      <c r="FB135" s="0"/>
-      <c r="FC135" s="0"/>
-      <c r="FD135" s="0"/>
-      <c r="FE135" s="0"/>
-      <c r="FF135" s="0"/>
-      <c r="FG135" s="0"/>
-      <c r="FH135" s="0"/>
-      <c r="FI135" s="0"/>
-      <c r="FJ135" s="0"/>
-      <c r="FK135" s="0"/>
-      <c r="FL135" s="0"/>
-      <c r="FM135" s="0"/>
-      <c r="FN135" s="0"/>
-      <c r="FO135" s="0"/>
-      <c r="FP135" s="0"/>
-      <c r="FQ135" s="0"/>
-      <c r="FR135" s="0"/>
-      <c r="FS135" s="0"/>
-      <c r="FT135" s="0"/>
-      <c r="FU135" s="0"/>
-      <c r="FV135" s="0"/>
-      <c r="FW135" s="0"/>
-      <c r="FX135" s="0"/>
-      <c r="FY135" s="0"/>
-      <c r="FZ135" s="0"/>
-      <c r="GA135" s="0"/>
-      <c r="GB135" s="0"/>
-      <c r="GC135" s="0"/>
-      <c r="GD135" s="0"/>
-      <c r="GE135" s="0"/>
-      <c r="GF135" s="0"/>
-      <c r="GG135" s="0"/>
-      <c r="GH135" s="0"/>
-      <c r="GI135" s="0"/>
-      <c r="GJ135" s="0"/>
-      <c r="GK135" s="0"/>
-      <c r="GL135" s="0"/>
-      <c r="GM135" s="0"/>
-      <c r="GN135" s="0"/>
-      <c r="GO135" s="0"/>
-      <c r="GP135" s="0"/>
-      <c r="GQ135" s="0"/>
-      <c r="GR135" s="0"/>
-      <c r="GS135" s="0"/>
-      <c r="GT135" s="0"/>
-      <c r="GU135" s="0"/>
-      <c r="GV135" s="0"/>
-      <c r="GW135" s="0"/>
-      <c r="GX135" s="0"/>
-      <c r="GY135" s="0"/>
-      <c r="GZ135" s="0"/>
-      <c r="HA135" s="0"/>
-      <c r="HB135" s="0"/>
-      <c r="HC135" s="0"/>
-      <c r="HD135" s="0"/>
-      <c r="HE135" s="0"/>
-      <c r="HF135" s="0"/>
-      <c r="HG135" s="0"/>
-      <c r="HH135" s="0"/>
-      <c r="HI135" s="0"/>
-      <c r="HJ135" s="0"/>
-      <c r="HK135" s="0"/>
-      <c r="HL135" s="0"/>
-      <c r="HM135" s="0"/>
-      <c r="HN135" s="0"/>
-      <c r="HO135" s="0"/>
-      <c r="HP135" s="0"/>
-      <c r="HQ135" s="0"/>
-      <c r="HR135" s="0"/>
-      <c r="HS135" s="0"/>
-      <c r="HT135" s="0"/>
-      <c r="HU135" s="0"/>
-      <c r="HV135" s="0"/>
-      <c r="HW135" s="0"/>
-      <c r="HX135" s="0"/>
-      <c r="HY135" s="0"/>
-      <c r="HZ135" s="0"/>
-      <c r="IA135" s="0"/>
-      <c r="IB135" s="0"/>
-      <c r="IC135" s="0"/>
-      <c r="ID135" s="0"/>
-      <c r="IE135" s="0"/>
-      <c r="IF135" s="0"/>
-      <c r="IG135" s="0"/>
-      <c r="IH135" s="0"/>
-      <c r="II135" s="0"/>
-      <c r="IJ135" s="0"/>
-      <c r="IK135" s="0"/>
-      <c r="IL135" s="0"/>
-      <c r="IM135" s="0"/>
-      <c r="IN135" s="0"/>
-      <c r="IO135" s="0"/>
-      <c r="IP135" s="0"/>
-      <c r="IQ135" s="0"/>
-      <c r="IR135" s="0"/>
-      <c r="IS135" s="0"/>
-      <c r="IT135" s="0"/>
-      <c r="IU135" s="0"/>
-      <c r="IV135" s="0"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+      <c r="AJ135" s="1"/>
+      <c r="AK135" s="1"/>
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AO135" s="1"/>
+      <c r="AP135" s="1"/>
+      <c r="AQ135" s="1"/>
+      <c r="AR135" s="1"/>
+      <c r="AS135" s="1"/>
+      <c r="AT135" s="1"/>
+      <c r="AU135" s="1"/>
+      <c r="AV135" s="1"/>
+      <c r="AW135" s="1"/>
+      <c r="AX135" s="1"/>
+      <c r="AY135" s="1"/>
+      <c r="AZ135" s="1"/>
+      <c r="BA135" s="1"/>
+      <c r="BB135" s="1"/>
+      <c r="BC135" s="1"/>
+      <c r="BD135" s="1"/>
+      <c r="BE135" s="1"/>
+      <c r="BF135" s="1"/>
+      <c r="BG135" s="1"/>
+      <c r="BH135" s="1"/>
+      <c r="BI135" s="1"/>
+      <c r="BJ135" s="1"/>
+      <c r="BK135" s="1"/>
+      <c r="BL135" s="1"/>
+      <c r="BM135" s="1"/>
+      <c r="BN135" s="1"/>
+      <c r="BO135" s="1"/>
+      <c r="BP135" s="1"/>
+      <c r="BQ135" s="1"/>
+      <c r="BR135" s="1"/>
+      <c r="BS135" s="1"/>
+      <c r="BT135" s="1"/>
+      <c r="BU135" s="1"/>
+      <c r="BV135" s="1"/>
+      <c r="BW135" s="1"/>
+      <c r="BX135" s="1"/>
+      <c r="BY135" s="1"/>
+      <c r="BZ135" s="1"/>
+      <c r="CA135" s="1"/>
+      <c r="CB135" s="1"/>
+      <c r="CC135" s="1"/>
+      <c r="CD135" s="1"/>
+      <c r="CE135" s="1"/>
+      <c r="CF135" s="1"/>
+      <c r="CG135" s="1"/>
+      <c r="CH135" s="1"/>
+      <c r="CI135" s="1"/>
+      <c r="CJ135" s="1"/>
+      <c r="CK135" s="1"/>
+      <c r="CL135" s="1"/>
+      <c r="CM135" s="1"/>
+      <c r="CN135" s="1"/>
+      <c r="CO135" s="1"/>
+      <c r="CP135" s="1"/>
+      <c r="CQ135" s="1"/>
+      <c r="CR135" s="1"/>
+      <c r="CS135" s="1"/>
+      <c r="CT135" s="1"/>
+      <c r="CU135" s="1"/>
+      <c r="CV135" s="1"/>
+      <c r="CW135" s="1"/>
+      <c r="CX135" s="1"/>
+      <c r="CY135" s="1"/>
+      <c r="CZ135" s="1"/>
+      <c r="DA135" s="1"/>
+      <c r="DB135" s="1"/>
+      <c r="DC135" s="1"/>
+      <c r="DD135" s="1"/>
+      <c r="DE135" s="1"/>
+      <c r="DF135" s="1"/>
+      <c r="DG135" s="1"/>
+      <c r="DH135" s="1"/>
+      <c r="DI135" s="1"/>
+      <c r="DJ135" s="1"/>
+      <c r="DK135" s="1"/>
+      <c r="DL135" s="1"/>
+      <c r="DM135" s="1"/>
+      <c r="DN135" s="1"/>
+      <c r="DO135" s="1"/>
+      <c r="DP135" s="1"/>
+      <c r="DQ135" s="1"/>
+      <c r="DR135" s="1"/>
+      <c r="DS135" s="1"/>
+      <c r="DT135" s="1"/>
+      <c r="DU135" s="1"/>
+      <c r="DV135" s="1"/>
+      <c r="DW135" s="1"/>
+      <c r="DX135" s="1"/>
+      <c r="DY135" s="1"/>
+      <c r="DZ135" s="1"/>
+      <c r="EA135" s="1"/>
+      <c r="EB135" s="1"/>
+      <c r="EC135" s="1"/>
+      <c r="ED135" s="1"/>
+      <c r="EE135" s="1"/>
+      <c r="EF135" s="1"/>
+      <c r="EG135" s="1"/>
+      <c r="EH135" s="1"/>
+      <c r="EI135" s="1"/>
+      <c r="EJ135" s="1"/>
+      <c r="EK135" s="1"/>
+      <c r="EL135" s="1"/>
+      <c r="EM135" s="1"/>
+      <c r="EN135" s="1"/>
+      <c r="EO135" s="1"/>
+      <c r="EP135" s="1"/>
+      <c r="EQ135" s="1"/>
+      <c r="ER135" s="1"/>
+      <c r="ES135" s="1"/>
+      <c r="ET135" s="1"/>
+      <c r="EU135" s="1"/>
+      <c r="EV135" s="1"/>
+      <c r="EW135" s="1"/>
+      <c r="EX135" s="1"/>
+      <c r="EY135" s="1"/>
+      <c r="EZ135" s="1"/>
+      <c r="FA135" s="1"/>
+      <c r="FB135" s="1"/>
+      <c r="FC135" s="1"/>
+      <c r="FD135" s="1"/>
+      <c r="FE135" s="1"/>
+      <c r="FF135" s="1"/>
+      <c r="FG135" s="1"/>
+      <c r="FH135" s="1"/>
+      <c r="FI135" s="1"/>
+      <c r="FJ135" s="1"/>
+      <c r="FK135" s="1"/>
+      <c r="FL135" s="1"/>
+      <c r="FM135" s="1"/>
+      <c r="FN135" s="1"/>
+      <c r="FO135" s="1"/>
+      <c r="FP135" s="1"/>
+      <c r="FQ135" s="1"/>
+      <c r="FR135" s="1"/>
+      <c r="FS135" s="1"/>
+      <c r="FT135" s="1"/>
+      <c r="FU135" s="1"/>
+      <c r="FV135" s="1"/>
+      <c r="FW135" s="1"/>
+      <c r="FX135" s="1"/>
+      <c r="FY135" s="1"/>
+      <c r="FZ135" s="1"/>
+      <c r="GA135" s="1"/>
+      <c r="GB135" s="1"/>
+      <c r="GC135" s="1"/>
+      <c r="GD135" s="1"/>
+      <c r="GE135" s="1"/>
+      <c r="GF135" s="1"/>
+      <c r="GG135" s="1"/>
+      <c r="GH135" s="1"/>
+      <c r="GI135" s="1"/>
+      <c r="GJ135" s="1"/>
+      <c r="GK135" s="1"/>
+      <c r="GL135" s="1"/>
+      <c r="GM135" s="1"/>
+      <c r="GN135" s="1"/>
+      <c r="GO135" s="1"/>
+      <c r="GP135" s="1"/>
+      <c r="GQ135" s="1"/>
+      <c r="GR135" s="1"/>
+      <c r="GS135" s="1"/>
+      <c r="GT135" s="1"/>
+      <c r="GU135" s="1"/>
+      <c r="GV135" s="1"/>
+      <c r="GW135" s="1"/>
+      <c r="GX135" s="1"/>
+      <c r="GY135" s="1"/>
+      <c r="GZ135" s="1"/>
+      <c r="HA135" s="1"/>
+      <c r="HB135" s="1"/>
+      <c r="HC135" s="1"/>
+      <c r="HD135" s="1"/>
+      <c r="HE135" s="1"/>
+      <c r="HF135" s="1"/>
+      <c r="HG135" s="1"/>
+      <c r="HH135" s="1"/>
+      <c r="HI135" s="1"/>
+      <c r="HJ135" s="1"/>
+      <c r="HK135" s="1"/>
+      <c r="HL135" s="1"/>
+      <c r="HM135" s="1"/>
+      <c r="HN135" s="1"/>
+      <c r="HO135" s="1"/>
+      <c r="HP135" s="1"/>
+      <c r="HQ135" s="1"/>
+      <c r="HR135" s="1"/>
+      <c r="HS135" s="1"/>
+      <c r="HT135" s="1"/>
+      <c r="HU135" s="1"/>
+      <c r="HV135" s="1"/>
+      <c r="HW135" s="1"/>
+      <c r="HX135" s="1"/>
+      <c r="HY135" s="1"/>
+      <c r="HZ135" s="1"/>
+      <c r="IA135" s="1"/>
+      <c r="IB135" s="1"/>
+      <c r="IC135" s="1"/>
+      <c r="ID135" s="1"/>
+      <c r="IE135" s="1"/>
+      <c r="IF135" s="1"/>
+      <c r="IG135" s="1"/>
+      <c r="IH135" s="1"/>
+      <c r="II135" s="1"/>
+      <c r="IJ135" s="1"/>
+      <c r="IK135" s="1"/>
+      <c r="IL135" s="1"/>
+      <c r="IM135" s="1"/>
+      <c r="IN135" s="1"/>
+      <c r="IO135" s="1"/>
+      <c r="IP135" s="1"/>
+      <c r="IQ135" s="1"/>
+      <c r="IR135" s="1"/>
+      <c r="IS135" s="1"/>
+      <c r="IT135" s="1"/>
+      <c r="IU135" s="1"/>
+      <c r="IV135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K136" s="1"/>
@@ -33451,252 +33455,252 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
-      <c r="K150" s="0"/>
-      <c r="L150" s="0"/>
-      <c r="M150" s="0"/>
-      <c r="N150" s="0"/>
-      <c r="O150" s="0"/>
-      <c r="P150" s="0"/>
-      <c r="Q150" s="0"/>
-      <c r="R150" s="0"/>
-      <c r="S150" s="0"/>
-      <c r="T150" s="0"/>
-      <c r="U150" s="0"/>
-      <c r="V150" s="0"/>
-      <c r="W150" s="0"/>
-      <c r="X150" s="0"/>
-      <c r="Y150" s="0"/>
-      <c r="Z150" s="0"/>
-      <c r="AA150" s="0"/>
-      <c r="AB150" s="0"/>
-      <c r="AC150" s="0"/>
-      <c r="AD150" s="0"/>
-      <c r="AE150" s="0"/>
-      <c r="AF150" s="0"/>
-      <c r="AG150" s="0"/>
-      <c r="AH150" s="0"/>
-      <c r="AI150" s="0"/>
-      <c r="AJ150" s="0"/>
-      <c r="AK150" s="0"/>
-      <c r="AL150" s="0"/>
-      <c r="AM150" s="0"/>
-      <c r="AN150" s="0"/>
-      <c r="AO150" s="0"/>
-      <c r="AP150" s="0"/>
-      <c r="AQ150" s="0"/>
-      <c r="AR150" s="0"/>
-      <c r="AS150" s="0"/>
-      <c r="AT150" s="0"/>
-      <c r="AU150" s="0"/>
-      <c r="AV150" s="0"/>
-      <c r="AW150" s="0"/>
-      <c r="AX150" s="0"/>
-      <c r="AY150" s="0"/>
-      <c r="AZ150" s="0"/>
-      <c r="BA150" s="0"/>
-      <c r="BB150" s="0"/>
-      <c r="BC150" s="0"/>
-      <c r="BD150" s="0"/>
-      <c r="BE150" s="0"/>
-      <c r="BF150" s="0"/>
-      <c r="BG150" s="0"/>
-      <c r="BH150" s="0"/>
-      <c r="BI150" s="0"/>
-      <c r="BJ150" s="0"/>
-      <c r="BK150" s="0"/>
-      <c r="BL150" s="0"/>
-      <c r="BM150" s="0"/>
-      <c r="BN150" s="0"/>
-      <c r="BO150" s="0"/>
-      <c r="BP150" s="0"/>
-      <c r="BQ150" s="0"/>
-      <c r="BR150" s="0"/>
-      <c r="BS150" s="0"/>
-      <c r="BT150" s="0"/>
-      <c r="BU150" s="0"/>
-      <c r="BV150" s="0"/>
-      <c r="BW150" s="0"/>
-      <c r="BX150" s="0"/>
-      <c r="BY150" s="0"/>
-      <c r="BZ150" s="0"/>
-      <c r="CA150" s="0"/>
-      <c r="CB150" s="0"/>
-      <c r="CC150" s="0"/>
-      <c r="CD150" s="0"/>
-      <c r="CE150" s="0"/>
-      <c r="CF150" s="0"/>
-      <c r="CG150" s="0"/>
-      <c r="CH150" s="0"/>
-      <c r="CI150" s="0"/>
-      <c r="CJ150" s="0"/>
-      <c r="CK150" s="0"/>
-      <c r="CL150" s="0"/>
-      <c r="CM150" s="0"/>
-      <c r="CN150" s="0"/>
-      <c r="CO150" s="0"/>
-      <c r="CP150" s="0"/>
-      <c r="CQ150" s="0"/>
-      <c r="CR150" s="0"/>
-      <c r="CS150" s="0"/>
-      <c r="CT150" s="0"/>
-      <c r="CU150" s="0"/>
-      <c r="CV150" s="0"/>
-      <c r="CW150" s="0"/>
-      <c r="CX150" s="0"/>
-      <c r="CY150" s="0"/>
-      <c r="CZ150" s="0"/>
-      <c r="DA150" s="0"/>
-      <c r="DB150" s="0"/>
-      <c r="DC150" s="0"/>
-      <c r="DD150" s="0"/>
-      <c r="DE150" s="0"/>
-      <c r="DF150" s="0"/>
-      <c r="DG150" s="0"/>
-      <c r="DH150" s="0"/>
-      <c r="DI150" s="0"/>
-      <c r="DJ150" s="0"/>
-      <c r="DK150" s="0"/>
-      <c r="DL150" s="0"/>
-      <c r="DM150" s="0"/>
-      <c r="DN150" s="0"/>
-      <c r="DO150" s="0"/>
-      <c r="DP150" s="0"/>
-      <c r="DQ150" s="0"/>
-      <c r="DR150" s="0"/>
-      <c r="DS150" s="0"/>
-      <c r="DT150" s="0"/>
-      <c r="DU150" s="0"/>
-      <c r="DV150" s="0"/>
-      <c r="DW150" s="0"/>
-      <c r="DX150" s="0"/>
-      <c r="DY150" s="0"/>
-      <c r="DZ150" s="0"/>
-      <c r="EA150" s="0"/>
-      <c r="EB150" s="0"/>
-      <c r="EC150" s="0"/>
-      <c r="ED150" s="0"/>
-      <c r="EE150" s="0"/>
-      <c r="EF150" s="0"/>
-      <c r="EG150" s="0"/>
-      <c r="EH150" s="0"/>
-      <c r="EI150" s="0"/>
-      <c r="EJ150" s="0"/>
-      <c r="EK150" s="0"/>
-      <c r="EL150" s="0"/>
-      <c r="EM150" s="0"/>
-      <c r="EN150" s="0"/>
-      <c r="EO150" s="0"/>
-      <c r="EP150" s="0"/>
-      <c r="EQ150" s="0"/>
-      <c r="ER150" s="0"/>
-      <c r="ES150" s="0"/>
-      <c r="ET150" s="0"/>
-      <c r="EU150" s="0"/>
-      <c r="EV150" s="0"/>
-      <c r="EW150" s="0"/>
-      <c r="EX150" s="0"/>
-      <c r="EY150" s="0"/>
-      <c r="EZ150" s="0"/>
-      <c r="FA150" s="0"/>
-      <c r="FB150" s="0"/>
-      <c r="FC150" s="0"/>
-      <c r="FD150" s="0"/>
-      <c r="FE150" s="0"/>
-      <c r="FF150" s="0"/>
-      <c r="FG150" s="0"/>
-      <c r="FH150" s="0"/>
-      <c r="FI150" s="0"/>
-      <c r="FJ150" s="0"/>
-      <c r="FK150" s="0"/>
-      <c r="FL150" s="0"/>
-      <c r="FM150" s="0"/>
-      <c r="FN150" s="0"/>
-      <c r="FO150" s="0"/>
-      <c r="FP150" s="0"/>
-      <c r="FQ150" s="0"/>
-      <c r="FR150" s="0"/>
-      <c r="FS150" s="0"/>
-      <c r="FT150" s="0"/>
-      <c r="FU150" s="0"/>
-      <c r="FV150" s="0"/>
-      <c r="FW150" s="0"/>
-      <c r="FX150" s="0"/>
-      <c r="FY150" s="0"/>
-      <c r="FZ150" s="0"/>
-      <c r="GA150" s="0"/>
-      <c r="GB150" s="0"/>
-      <c r="GC150" s="0"/>
-      <c r="GD150" s="0"/>
-      <c r="GE150" s="0"/>
-      <c r="GF150" s="0"/>
-      <c r="GG150" s="0"/>
-      <c r="GH150" s="0"/>
-      <c r="GI150" s="0"/>
-      <c r="GJ150" s="0"/>
-      <c r="GK150" s="0"/>
-      <c r="GL150" s="0"/>
-      <c r="GM150" s="0"/>
-      <c r="GN150" s="0"/>
-      <c r="GO150" s="0"/>
-      <c r="GP150" s="0"/>
-      <c r="GQ150" s="0"/>
-      <c r="GR150" s="0"/>
-      <c r="GS150" s="0"/>
-      <c r="GT150" s="0"/>
-      <c r="GU150" s="0"/>
-      <c r="GV150" s="0"/>
-      <c r="GW150" s="0"/>
-      <c r="GX150" s="0"/>
-      <c r="GY150" s="0"/>
-      <c r="GZ150" s="0"/>
-      <c r="HA150" s="0"/>
-      <c r="HB150" s="0"/>
-      <c r="HC150" s="0"/>
-      <c r="HD150" s="0"/>
-      <c r="HE150" s="0"/>
-      <c r="HF150" s="0"/>
-      <c r="HG150" s="0"/>
-      <c r="HH150" s="0"/>
-      <c r="HI150" s="0"/>
-      <c r="HJ150" s="0"/>
-      <c r="HK150" s="0"/>
-      <c r="HL150" s="0"/>
-      <c r="HM150" s="0"/>
-      <c r="HN150" s="0"/>
-      <c r="HO150" s="0"/>
-      <c r="HP150" s="0"/>
-      <c r="HQ150" s="0"/>
-      <c r="HR150" s="0"/>
-      <c r="HS150" s="0"/>
-      <c r="HT150" s="0"/>
-      <c r="HU150" s="0"/>
-      <c r="HV150" s="0"/>
-      <c r="HW150" s="0"/>
-      <c r="HX150" s="0"/>
-      <c r="HY150" s="0"/>
-      <c r="HZ150" s="0"/>
-      <c r="IA150" s="0"/>
-      <c r="IB150" s="0"/>
-      <c r="IC150" s="0"/>
-      <c r="ID150" s="0"/>
-      <c r="IE150" s="0"/>
-      <c r="IF150" s="0"/>
-      <c r="IG150" s="0"/>
-      <c r="IH150" s="0"/>
-      <c r="II150" s="0"/>
-      <c r="IJ150" s="0"/>
-      <c r="IK150" s="0"/>
-      <c r="IL150" s="0"/>
-      <c r="IM150" s="0"/>
-      <c r="IN150" s="0"/>
-      <c r="IO150" s="0"/>
-      <c r="IP150" s="0"/>
-      <c r="IQ150" s="0"/>
-      <c r="IR150" s="0"/>
-      <c r="IS150" s="0"/>
-      <c r="IT150" s="0"/>
-      <c r="IU150" s="0"/>
-      <c r="IV150" s="0"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+      <c r="AJ150" s="1"/>
+      <c r="AK150" s="1"/>
+      <c r="AL150" s="1"/>
+      <c r="AM150" s="1"/>
+      <c r="AN150" s="1"/>
+      <c r="AO150" s="1"/>
+      <c r="AP150" s="1"/>
+      <c r="AQ150" s="1"/>
+      <c r="AR150" s="1"/>
+      <c r="AS150" s="1"/>
+      <c r="AT150" s="1"/>
+      <c r="AU150" s="1"/>
+      <c r="AV150" s="1"/>
+      <c r="AW150" s="1"/>
+      <c r="AX150" s="1"/>
+      <c r="AY150" s="1"/>
+      <c r="AZ150" s="1"/>
+      <c r="BA150" s="1"/>
+      <c r="BB150" s="1"/>
+      <c r="BC150" s="1"/>
+      <c r="BD150" s="1"/>
+      <c r="BE150" s="1"/>
+      <c r="BF150" s="1"/>
+      <c r="BG150" s="1"/>
+      <c r="BH150" s="1"/>
+      <c r="BI150" s="1"/>
+      <c r="BJ150" s="1"/>
+      <c r="BK150" s="1"/>
+      <c r="BL150" s="1"/>
+      <c r="BM150" s="1"/>
+      <c r="BN150" s="1"/>
+      <c r="BO150" s="1"/>
+      <c r="BP150" s="1"/>
+      <c r="BQ150" s="1"/>
+      <c r="BR150" s="1"/>
+      <c r="BS150" s="1"/>
+      <c r="BT150" s="1"/>
+      <c r="BU150" s="1"/>
+      <c r="BV150" s="1"/>
+      <c r="BW150" s="1"/>
+      <c r="BX150" s="1"/>
+      <c r="BY150" s="1"/>
+      <c r="BZ150" s="1"/>
+      <c r="CA150" s="1"/>
+      <c r="CB150" s="1"/>
+      <c r="CC150" s="1"/>
+      <c r="CD150" s="1"/>
+      <c r="CE150" s="1"/>
+      <c r="CF150" s="1"/>
+      <c r="CG150" s="1"/>
+      <c r="CH150" s="1"/>
+      <c r="CI150" s="1"/>
+      <c r="CJ150" s="1"/>
+      <c r="CK150" s="1"/>
+      <c r="CL150" s="1"/>
+      <c r="CM150" s="1"/>
+      <c r="CN150" s="1"/>
+      <c r="CO150" s="1"/>
+      <c r="CP150" s="1"/>
+      <c r="CQ150" s="1"/>
+      <c r="CR150" s="1"/>
+      <c r="CS150" s="1"/>
+      <c r="CT150" s="1"/>
+      <c r="CU150" s="1"/>
+      <c r="CV150" s="1"/>
+      <c r="CW150" s="1"/>
+      <c r="CX150" s="1"/>
+      <c r="CY150" s="1"/>
+      <c r="CZ150" s="1"/>
+      <c r="DA150" s="1"/>
+      <c r="DB150" s="1"/>
+      <c r="DC150" s="1"/>
+      <c r="DD150" s="1"/>
+      <c r="DE150" s="1"/>
+      <c r="DF150" s="1"/>
+      <c r="DG150" s="1"/>
+      <c r="DH150" s="1"/>
+      <c r="DI150" s="1"/>
+      <c r="DJ150" s="1"/>
+      <c r="DK150" s="1"/>
+      <c r="DL150" s="1"/>
+      <c r="DM150" s="1"/>
+      <c r="DN150" s="1"/>
+      <c r="DO150" s="1"/>
+      <c r="DP150" s="1"/>
+      <c r="DQ150" s="1"/>
+      <c r="DR150" s="1"/>
+      <c r="DS150" s="1"/>
+      <c r="DT150" s="1"/>
+      <c r="DU150" s="1"/>
+      <c r="DV150" s="1"/>
+      <c r="DW150" s="1"/>
+      <c r="DX150" s="1"/>
+      <c r="DY150" s="1"/>
+      <c r="DZ150" s="1"/>
+      <c r="EA150" s="1"/>
+      <c r="EB150" s="1"/>
+      <c r="EC150" s="1"/>
+      <c r="ED150" s="1"/>
+      <c r="EE150" s="1"/>
+      <c r="EF150" s="1"/>
+      <c r="EG150" s="1"/>
+      <c r="EH150" s="1"/>
+      <c r="EI150" s="1"/>
+      <c r="EJ150" s="1"/>
+      <c r="EK150" s="1"/>
+      <c r="EL150" s="1"/>
+      <c r="EM150" s="1"/>
+      <c r="EN150" s="1"/>
+      <c r="EO150" s="1"/>
+      <c r="EP150" s="1"/>
+      <c r="EQ150" s="1"/>
+      <c r="ER150" s="1"/>
+      <c r="ES150" s="1"/>
+      <c r="ET150" s="1"/>
+      <c r="EU150" s="1"/>
+      <c r="EV150" s="1"/>
+      <c r="EW150" s="1"/>
+      <c r="EX150" s="1"/>
+      <c r="EY150" s="1"/>
+      <c r="EZ150" s="1"/>
+      <c r="FA150" s="1"/>
+      <c r="FB150" s="1"/>
+      <c r="FC150" s="1"/>
+      <c r="FD150" s="1"/>
+      <c r="FE150" s="1"/>
+      <c r="FF150" s="1"/>
+      <c r="FG150" s="1"/>
+      <c r="FH150" s="1"/>
+      <c r="FI150" s="1"/>
+      <c r="FJ150" s="1"/>
+      <c r="FK150" s="1"/>
+      <c r="FL150" s="1"/>
+      <c r="FM150" s="1"/>
+      <c r="FN150" s="1"/>
+      <c r="FO150" s="1"/>
+      <c r="FP150" s="1"/>
+      <c r="FQ150" s="1"/>
+      <c r="FR150" s="1"/>
+      <c r="FS150" s="1"/>
+      <c r="FT150" s="1"/>
+      <c r="FU150" s="1"/>
+      <c r="FV150" s="1"/>
+      <c r="FW150" s="1"/>
+      <c r="FX150" s="1"/>
+      <c r="FY150" s="1"/>
+      <c r="FZ150" s="1"/>
+      <c r="GA150" s="1"/>
+      <c r="GB150" s="1"/>
+      <c r="GC150" s="1"/>
+      <c r="GD150" s="1"/>
+      <c r="GE150" s="1"/>
+      <c r="GF150" s="1"/>
+      <c r="GG150" s="1"/>
+      <c r="GH150" s="1"/>
+      <c r="GI150" s="1"/>
+      <c r="GJ150" s="1"/>
+      <c r="GK150" s="1"/>
+      <c r="GL150" s="1"/>
+      <c r="GM150" s="1"/>
+      <c r="GN150" s="1"/>
+      <c r="GO150" s="1"/>
+      <c r="GP150" s="1"/>
+      <c r="GQ150" s="1"/>
+      <c r="GR150" s="1"/>
+      <c r="GS150" s="1"/>
+      <c r="GT150" s="1"/>
+      <c r="GU150" s="1"/>
+      <c r="GV150" s="1"/>
+      <c r="GW150" s="1"/>
+      <c r="GX150" s="1"/>
+      <c r="GY150" s="1"/>
+      <c r="GZ150" s="1"/>
+      <c r="HA150" s="1"/>
+      <c r="HB150" s="1"/>
+      <c r="HC150" s="1"/>
+      <c r="HD150" s="1"/>
+      <c r="HE150" s="1"/>
+      <c r="HF150" s="1"/>
+      <c r="HG150" s="1"/>
+      <c r="HH150" s="1"/>
+      <c r="HI150" s="1"/>
+      <c r="HJ150" s="1"/>
+      <c r="HK150" s="1"/>
+      <c r="HL150" s="1"/>
+      <c r="HM150" s="1"/>
+      <c r="HN150" s="1"/>
+      <c r="HO150" s="1"/>
+      <c r="HP150" s="1"/>
+      <c r="HQ150" s="1"/>
+      <c r="HR150" s="1"/>
+      <c r="HS150" s="1"/>
+      <c r="HT150" s="1"/>
+      <c r="HU150" s="1"/>
+      <c r="HV150" s="1"/>
+      <c r="HW150" s="1"/>
+      <c r="HX150" s="1"/>
+      <c r="HY150" s="1"/>
+      <c r="HZ150" s="1"/>
+      <c r="IA150" s="1"/>
+      <c r="IB150" s="1"/>
+      <c r="IC150" s="1"/>
+      <c r="ID150" s="1"/>
+      <c r="IE150" s="1"/>
+      <c r="IF150" s="1"/>
+      <c r="IG150" s="1"/>
+      <c r="IH150" s="1"/>
+      <c r="II150" s="1"/>
+      <c r="IJ150" s="1"/>
+      <c r="IK150" s="1"/>
+      <c r="IL150" s="1"/>
+      <c r="IM150" s="1"/>
+      <c r="IN150" s="1"/>
+      <c r="IO150" s="1"/>
+      <c r="IP150" s="1"/>
+      <c r="IQ150" s="1"/>
+      <c r="IR150" s="1"/>
+      <c r="IS150" s="1"/>
+      <c r="IT150" s="1"/>
+      <c r="IU150" s="1"/>
+      <c r="IV150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K151" s="1"/>
@@ -34205,252 +34209,252 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
-      <c r="K157" s="0"/>
-      <c r="L157" s="0"/>
-      <c r="M157" s="0"/>
-      <c r="N157" s="0"/>
-      <c r="O157" s="0"/>
-      <c r="P157" s="0"/>
-      <c r="Q157" s="0"/>
-      <c r="R157" s="0"/>
-      <c r="S157" s="0"/>
-      <c r="T157" s="0"/>
-      <c r="U157" s="0"/>
-      <c r="V157" s="0"/>
-      <c r="W157" s="0"/>
-      <c r="X157" s="0"/>
-      <c r="Y157" s="0"/>
-      <c r="Z157" s="0"/>
-      <c r="AA157" s="0"/>
-      <c r="AB157" s="0"/>
-      <c r="AC157" s="0"/>
-      <c r="AD157" s="0"/>
-      <c r="AE157" s="0"/>
-      <c r="AF157" s="0"/>
-      <c r="AG157" s="0"/>
-      <c r="AH157" s="0"/>
-      <c r="AI157" s="0"/>
-      <c r="AJ157" s="0"/>
-      <c r="AK157" s="0"/>
-      <c r="AL157" s="0"/>
-      <c r="AM157" s="0"/>
-      <c r="AN157" s="0"/>
-      <c r="AO157" s="0"/>
-      <c r="AP157" s="0"/>
-      <c r="AQ157" s="0"/>
-      <c r="AR157" s="0"/>
-      <c r="AS157" s="0"/>
-      <c r="AT157" s="0"/>
-      <c r="AU157" s="0"/>
-      <c r="AV157" s="0"/>
-      <c r="AW157" s="0"/>
-      <c r="AX157" s="0"/>
-      <c r="AY157" s="0"/>
-      <c r="AZ157" s="0"/>
-      <c r="BA157" s="0"/>
-      <c r="BB157" s="0"/>
-      <c r="BC157" s="0"/>
-      <c r="BD157" s="0"/>
-      <c r="BE157" s="0"/>
-      <c r="BF157" s="0"/>
-      <c r="BG157" s="0"/>
-      <c r="BH157" s="0"/>
-      <c r="BI157" s="0"/>
-      <c r="BJ157" s="0"/>
-      <c r="BK157" s="0"/>
-      <c r="BL157" s="0"/>
-      <c r="BM157" s="0"/>
-      <c r="BN157" s="0"/>
-      <c r="BO157" s="0"/>
-      <c r="BP157" s="0"/>
-      <c r="BQ157" s="0"/>
-      <c r="BR157" s="0"/>
-      <c r="BS157" s="0"/>
-      <c r="BT157" s="0"/>
-      <c r="BU157" s="0"/>
-      <c r="BV157" s="0"/>
-      <c r="BW157" s="0"/>
-      <c r="BX157" s="0"/>
-      <c r="BY157" s="0"/>
-      <c r="BZ157" s="0"/>
-      <c r="CA157" s="0"/>
-      <c r="CB157" s="0"/>
-      <c r="CC157" s="0"/>
-      <c r="CD157" s="0"/>
-      <c r="CE157" s="0"/>
-      <c r="CF157" s="0"/>
-      <c r="CG157" s="0"/>
-      <c r="CH157" s="0"/>
-      <c r="CI157" s="0"/>
-      <c r="CJ157" s="0"/>
-      <c r="CK157" s="0"/>
-      <c r="CL157" s="0"/>
-      <c r="CM157" s="0"/>
-      <c r="CN157" s="0"/>
-      <c r="CO157" s="0"/>
-      <c r="CP157" s="0"/>
-      <c r="CQ157" s="0"/>
-      <c r="CR157" s="0"/>
-      <c r="CS157" s="0"/>
-      <c r="CT157" s="0"/>
-      <c r="CU157" s="0"/>
-      <c r="CV157" s="0"/>
-      <c r="CW157" s="0"/>
-      <c r="CX157" s="0"/>
-      <c r="CY157" s="0"/>
-      <c r="CZ157" s="0"/>
-      <c r="DA157" s="0"/>
-      <c r="DB157" s="0"/>
-      <c r="DC157" s="0"/>
-      <c r="DD157" s="0"/>
-      <c r="DE157" s="0"/>
-      <c r="DF157" s="0"/>
-      <c r="DG157" s="0"/>
-      <c r="DH157" s="0"/>
-      <c r="DI157" s="0"/>
-      <c r="DJ157" s="0"/>
-      <c r="DK157" s="0"/>
-      <c r="DL157" s="0"/>
-      <c r="DM157" s="0"/>
-      <c r="DN157" s="0"/>
-      <c r="DO157" s="0"/>
-      <c r="DP157" s="0"/>
-      <c r="DQ157" s="0"/>
-      <c r="DR157" s="0"/>
-      <c r="DS157" s="0"/>
-      <c r="DT157" s="0"/>
-      <c r="DU157" s="0"/>
-      <c r="DV157" s="0"/>
-      <c r="DW157" s="0"/>
-      <c r="DX157" s="0"/>
-      <c r="DY157" s="0"/>
-      <c r="DZ157" s="0"/>
-      <c r="EA157" s="0"/>
-      <c r="EB157" s="0"/>
-      <c r="EC157" s="0"/>
-      <c r="ED157" s="0"/>
-      <c r="EE157" s="0"/>
-      <c r="EF157" s="0"/>
-      <c r="EG157" s="0"/>
-      <c r="EH157" s="0"/>
-      <c r="EI157" s="0"/>
-      <c r="EJ157" s="0"/>
-      <c r="EK157" s="0"/>
-      <c r="EL157" s="0"/>
-      <c r="EM157" s="0"/>
-      <c r="EN157" s="0"/>
-      <c r="EO157" s="0"/>
-      <c r="EP157" s="0"/>
-      <c r="EQ157" s="0"/>
-      <c r="ER157" s="0"/>
-      <c r="ES157" s="0"/>
-      <c r="ET157" s="0"/>
-      <c r="EU157" s="0"/>
-      <c r="EV157" s="0"/>
-      <c r="EW157" s="0"/>
-      <c r="EX157" s="0"/>
-      <c r="EY157" s="0"/>
-      <c r="EZ157" s="0"/>
-      <c r="FA157" s="0"/>
-      <c r="FB157" s="0"/>
-      <c r="FC157" s="0"/>
-      <c r="FD157" s="0"/>
-      <c r="FE157" s="0"/>
-      <c r="FF157" s="0"/>
-      <c r="FG157" s="0"/>
-      <c r="FH157" s="0"/>
-      <c r="FI157" s="0"/>
-      <c r="FJ157" s="0"/>
-      <c r="FK157" s="0"/>
-      <c r="FL157" s="0"/>
-      <c r="FM157" s="0"/>
-      <c r="FN157" s="0"/>
-      <c r="FO157" s="0"/>
-      <c r="FP157" s="0"/>
-      <c r="FQ157" s="0"/>
-      <c r="FR157" s="0"/>
-      <c r="FS157" s="0"/>
-      <c r="FT157" s="0"/>
-      <c r="FU157" s="0"/>
-      <c r="FV157" s="0"/>
-      <c r="FW157" s="0"/>
-      <c r="FX157" s="0"/>
-      <c r="FY157" s="0"/>
-      <c r="FZ157" s="0"/>
-      <c r="GA157" s="0"/>
-      <c r="GB157" s="0"/>
-      <c r="GC157" s="0"/>
-      <c r="GD157" s="0"/>
-      <c r="GE157" s="0"/>
-      <c r="GF157" s="0"/>
-      <c r="GG157" s="0"/>
-      <c r="GH157" s="0"/>
-      <c r="GI157" s="0"/>
-      <c r="GJ157" s="0"/>
-      <c r="GK157" s="0"/>
-      <c r="GL157" s="0"/>
-      <c r="GM157" s="0"/>
-      <c r="GN157" s="0"/>
-      <c r="GO157" s="0"/>
-      <c r="GP157" s="0"/>
-      <c r="GQ157" s="0"/>
-      <c r="GR157" s="0"/>
-      <c r="GS157" s="0"/>
-      <c r="GT157" s="0"/>
-      <c r="GU157" s="0"/>
-      <c r="GV157" s="0"/>
-      <c r="GW157" s="0"/>
-      <c r="GX157" s="0"/>
-      <c r="GY157" s="0"/>
-      <c r="GZ157" s="0"/>
-      <c r="HA157" s="0"/>
-      <c r="HB157" s="0"/>
-      <c r="HC157" s="0"/>
-      <c r="HD157" s="0"/>
-      <c r="HE157" s="0"/>
-      <c r="HF157" s="0"/>
-      <c r="HG157" s="0"/>
-      <c r="HH157" s="0"/>
-      <c r="HI157" s="0"/>
-      <c r="HJ157" s="0"/>
-      <c r="HK157" s="0"/>
-      <c r="HL157" s="0"/>
-      <c r="HM157" s="0"/>
-      <c r="HN157" s="0"/>
-      <c r="HO157" s="0"/>
-      <c r="HP157" s="0"/>
-      <c r="HQ157" s="0"/>
-      <c r="HR157" s="0"/>
-      <c r="HS157" s="0"/>
-      <c r="HT157" s="0"/>
-      <c r="HU157" s="0"/>
-      <c r="HV157" s="0"/>
-      <c r="HW157" s="0"/>
-      <c r="HX157" s="0"/>
-      <c r="HY157" s="0"/>
-      <c r="HZ157" s="0"/>
-      <c r="IA157" s="0"/>
-      <c r="IB157" s="0"/>
-      <c r="IC157" s="0"/>
-      <c r="ID157" s="0"/>
-      <c r="IE157" s="0"/>
-      <c r="IF157" s="0"/>
-      <c r="IG157" s="0"/>
-      <c r="IH157" s="0"/>
-      <c r="II157" s="0"/>
-      <c r="IJ157" s="0"/>
-      <c r="IK157" s="0"/>
-      <c r="IL157" s="0"/>
-      <c r="IM157" s="0"/>
-      <c r="IN157" s="0"/>
-      <c r="IO157" s="0"/>
-      <c r="IP157" s="0"/>
-      <c r="IQ157" s="0"/>
-      <c r="IR157" s="0"/>
-      <c r="IS157" s="0"/>
-      <c r="IT157" s="0"/>
-      <c r="IU157" s="0"/>
-      <c r="IV157" s="0"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+      <c r="AJ157" s="1"/>
+      <c r="AK157" s="1"/>
+      <c r="AL157" s="1"/>
+      <c r="AM157" s="1"/>
+      <c r="AN157" s="1"/>
+      <c r="AO157" s="1"/>
+      <c r="AP157" s="1"/>
+      <c r="AQ157" s="1"/>
+      <c r="AR157" s="1"/>
+      <c r="AS157" s="1"/>
+      <c r="AT157" s="1"/>
+      <c r="AU157" s="1"/>
+      <c r="AV157" s="1"/>
+      <c r="AW157" s="1"/>
+      <c r="AX157" s="1"/>
+      <c r="AY157" s="1"/>
+      <c r="AZ157" s="1"/>
+      <c r="BA157" s="1"/>
+      <c r="BB157" s="1"/>
+      <c r="BC157" s="1"/>
+      <c r="BD157" s="1"/>
+      <c r="BE157" s="1"/>
+      <c r="BF157" s="1"/>
+      <c r="BG157" s="1"/>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
+      <c r="BL157" s="1"/>
+      <c r="BM157" s="1"/>
+      <c r="BN157" s="1"/>
+      <c r="BO157" s="1"/>
+      <c r="BP157" s="1"/>
+      <c r="BQ157" s="1"/>
+      <c r="BR157" s="1"/>
+      <c r="BS157" s="1"/>
+      <c r="BT157" s="1"/>
+      <c r="BU157" s="1"/>
+      <c r="BV157" s="1"/>
+      <c r="BW157" s="1"/>
+      <c r="BX157" s="1"/>
+      <c r="BY157" s="1"/>
+      <c r="BZ157" s="1"/>
+      <c r="CA157" s="1"/>
+      <c r="CB157" s="1"/>
+      <c r="CC157" s="1"/>
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+      <c r="CL157" s="1"/>
+      <c r="CM157" s="1"/>
+      <c r="CN157" s="1"/>
+      <c r="CO157" s="1"/>
+      <c r="CP157" s="1"/>
+      <c r="CQ157" s="1"/>
+      <c r="CR157" s="1"/>
+      <c r="CS157" s="1"/>
+      <c r="CT157" s="1"/>
+      <c r="CU157" s="1"/>
+      <c r="CV157" s="1"/>
+      <c r="CW157" s="1"/>
+      <c r="CX157" s="1"/>
+      <c r="CY157" s="1"/>
+      <c r="CZ157" s="1"/>
+      <c r="DA157" s="1"/>
+      <c r="DB157" s="1"/>
+      <c r="DC157" s="1"/>
+      <c r="DD157" s="1"/>
+      <c r="DE157" s="1"/>
+      <c r="DF157" s="1"/>
+      <c r="DG157" s="1"/>
+      <c r="DH157" s="1"/>
+      <c r="DI157" s="1"/>
+      <c r="DJ157" s="1"/>
+      <c r="DK157" s="1"/>
+      <c r="DL157" s="1"/>
+      <c r="DM157" s="1"/>
+      <c r="DN157" s="1"/>
+      <c r="DO157" s="1"/>
+      <c r="DP157" s="1"/>
+      <c r="DQ157" s="1"/>
+      <c r="DR157" s="1"/>
+      <c r="DS157" s="1"/>
+      <c r="DT157" s="1"/>
+      <c r="DU157" s="1"/>
+      <c r="DV157" s="1"/>
+      <c r="DW157" s="1"/>
+      <c r="DX157" s="1"/>
+      <c r="DY157" s="1"/>
+      <c r="DZ157" s="1"/>
+      <c r="EA157" s="1"/>
+      <c r="EB157" s="1"/>
+      <c r="EC157" s="1"/>
+      <c r="ED157" s="1"/>
+      <c r="EE157" s="1"/>
+      <c r="EF157" s="1"/>
+      <c r="EG157" s="1"/>
+      <c r="EH157" s="1"/>
+      <c r="EI157" s="1"/>
+      <c r="EJ157" s="1"/>
+      <c r="EK157" s="1"/>
+      <c r="EL157" s="1"/>
+      <c r="EM157" s="1"/>
+      <c r="EN157" s="1"/>
+      <c r="EO157" s="1"/>
+      <c r="EP157" s="1"/>
+      <c r="EQ157" s="1"/>
+      <c r="ER157" s="1"/>
+      <c r="ES157" s="1"/>
+      <c r="ET157" s="1"/>
+      <c r="EU157" s="1"/>
+      <c r="EV157" s="1"/>
+      <c r="EW157" s="1"/>
+      <c r="EX157" s="1"/>
+      <c r="EY157" s="1"/>
+      <c r="EZ157" s="1"/>
+      <c r="FA157" s="1"/>
+      <c r="FB157" s="1"/>
+      <c r="FC157" s="1"/>
+      <c r="FD157" s="1"/>
+      <c r="FE157" s="1"/>
+      <c r="FF157" s="1"/>
+      <c r="FG157" s="1"/>
+      <c r="FH157" s="1"/>
+      <c r="FI157" s="1"/>
+      <c r="FJ157" s="1"/>
+      <c r="FK157" s="1"/>
+      <c r="FL157" s="1"/>
+      <c r="FM157" s="1"/>
+      <c r="FN157" s="1"/>
+      <c r="FO157" s="1"/>
+      <c r="FP157" s="1"/>
+      <c r="FQ157" s="1"/>
+      <c r="FR157" s="1"/>
+      <c r="FS157" s="1"/>
+      <c r="FT157" s="1"/>
+      <c r="FU157" s="1"/>
+      <c r="FV157" s="1"/>
+      <c r="FW157" s="1"/>
+      <c r="FX157" s="1"/>
+      <c r="FY157" s="1"/>
+      <c r="FZ157" s="1"/>
+      <c r="GA157" s="1"/>
+      <c r="GB157" s="1"/>
+      <c r="GC157" s="1"/>
+      <c r="GD157" s="1"/>
+      <c r="GE157" s="1"/>
+      <c r="GF157" s="1"/>
+      <c r="GG157" s="1"/>
+      <c r="GH157" s="1"/>
+      <c r="GI157" s="1"/>
+      <c r="GJ157" s="1"/>
+      <c r="GK157" s="1"/>
+      <c r="GL157" s="1"/>
+      <c r="GM157" s="1"/>
+      <c r="GN157" s="1"/>
+      <c r="GO157" s="1"/>
+      <c r="GP157" s="1"/>
+      <c r="GQ157" s="1"/>
+      <c r="GR157" s="1"/>
+      <c r="GS157" s="1"/>
+      <c r="GT157" s="1"/>
+      <c r="GU157" s="1"/>
+      <c r="GV157" s="1"/>
+      <c r="GW157" s="1"/>
+      <c r="GX157" s="1"/>
+      <c r="GY157" s="1"/>
+      <c r="GZ157" s="1"/>
+      <c r="HA157" s="1"/>
+      <c r="HB157" s="1"/>
+      <c r="HC157" s="1"/>
+      <c r="HD157" s="1"/>
+      <c r="HE157" s="1"/>
+      <c r="HF157" s="1"/>
+      <c r="HG157" s="1"/>
+      <c r="HH157" s="1"/>
+      <c r="HI157" s="1"/>
+      <c r="HJ157" s="1"/>
+      <c r="HK157" s="1"/>
+      <c r="HL157" s="1"/>
+      <c r="HM157" s="1"/>
+      <c r="HN157" s="1"/>
+      <c r="HO157" s="1"/>
+      <c r="HP157" s="1"/>
+      <c r="HQ157" s="1"/>
+      <c r="HR157" s="1"/>
+      <c r="HS157" s="1"/>
+      <c r="HT157" s="1"/>
+      <c r="HU157" s="1"/>
+      <c r="HV157" s="1"/>
+      <c r="HW157" s="1"/>
+      <c r="HX157" s="1"/>
+      <c r="HY157" s="1"/>
+      <c r="HZ157" s="1"/>
+      <c r="IA157" s="1"/>
+      <c r="IB157" s="1"/>
+      <c r="IC157" s="1"/>
+      <c r="ID157" s="1"/>
+      <c r="IE157" s="1"/>
+      <c r="IF157" s="1"/>
+      <c r="IG157" s="1"/>
+      <c r="IH157" s="1"/>
+      <c r="II157" s="1"/>
+      <c r="IJ157" s="1"/>
+      <c r="IK157" s="1"/>
+      <c r="IL157" s="1"/>
+      <c r="IM157" s="1"/>
+      <c r="IN157" s="1"/>
+      <c r="IO157" s="1"/>
+      <c r="IP157" s="1"/>
+      <c r="IQ157" s="1"/>
+      <c r="IR157" s="1"/>
+      <c r="IS157" s="1"/>
+      <c r="IT157" s="1"/>
+      <c r="IU157" s="1"/>
+      <c r="IV157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K158" s="1"/>

--- a/JP (Exclude Game)/Dialog/Drama/_main.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_main.xlsx
@@ -822,11 +822,11 @@
 I...well, I'll leave the rest to your imagination.</t>
   </si>
   <si>
-    <t xml:space="preserve">…我々ミシリアの者にとって、シェトラス様は父親であり、頭の上がらぬ先生だ。なにせ、200年もこの国を見守ってきたのだからね。さすがの君も、シェトラス様にはかなわなかったか。
+    <t xml:space="preserve">…我々ミシリアの者にとって、シェトラス様は父親であり、頭の上がらぬ先生だ。なにせ、100年以上もこの国を見守ってきたのだからね。さすがの君も、シェトラス様にはかなわなかったか。
 君が稽古に顔を見せなくなり、街外れの丘で一人リラの練習をしていると聞いたときは、恋の熱にでも浮かされたのかと皆勘ぐったものだ。だが、最近はリラを担いだ姿が板に付いてきている。</t>
   </si>
   <si>
-    <t xml:space="preserve">...For those of us in Mysilia, Master Cetrus is a father and a teacher we cannot look up to. After all, he has been watching over this country for 200 years. Even you are just like a spoiled child to him.
+    <t xml:space="preserve">...For those of us in Mysilia, Master Cetrus is a father and a teacher we cannot look up to. After all, he has been watching over this country for a hundred years and more. Even you are just like a spoiled child to him.
 We all wondered if you had been carried away by the fever of love when you had stopped showing up for practice and we heard that you were practicing lyra alone on a hill. But nowadays, you are getting used to carrying your lyra.</t>
   </si>
   <si>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1952,10 +1952,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2441,9 +2437,9 @@
   <dimension ref="A1:IW492"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J257" activeCellId="0" sqref="J257"/>
+      <selection pane="bottomLeft" activeCell="J153" activeCellId="0" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15189,7 +15185,7 @@
       <c r="I257" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J257" s="10" t="s">
+      <c r="J257" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -29401,10 +29397,10 @@
       <c r="H56" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>448</v>
       </c>
     </row>
@@ -29412,10 +29408,10 @@
       <c r="H57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>450</v>
       </c>
     </row>
@@ -29431,10 +29427,10 @@
       <c r="H59" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>452</v>
       </c>
     </row>
@@ -29442,10 +29438,10 @@
       <c r="H60" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="10" t="s">
         <v>454</v>
       </c>
     </row>
@@ -29453,10 +29449,10 @@
       <c r="H61" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="10" t="s">
         <v>456</v>
       </c>
     </row>
@@ -29472,10 +29468,10 @@
       <c r="H63" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="10" t="s">
         <v>458</v>
       </c>
     </row>
@@ -29483,10 +29479,10 @@
       <c r="H64" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="10" t="s">
         <v>460</v>
       </c>
     </row>
@@ -29494,10 +29490,10 @@
       <c r="H65" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="10" t="s">
         <v>462</v>
       </c>
     </row>
@@ -29505,10 +29501,10 @@
       <c r="H66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="10" t="s">
         <v>464</v>
       </c>
     </row>
@@ -30902,7 +30898,7 @@
       <c r="H99" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="I99" s="10" t="s">
         <v>467</v>
       </c>
     </row>
@@ -30910,7 +30906,7 @@
       <c r="H100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -30918,7 +30914,7 @@
       <c r="H101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="I101" s="10" t="s">
         <v>469</v>
       </c>
     </row>
@@ -30934,7 +30930,7 @@
       <c r="H103" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="10" t="s">
         <v>470</v>
       </c>
     </row>
@@ -30942,7 +30938,7 @@
       <c r="H104" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="10" t="s">
         <v>471</v>
       </c>
     </row>
@@ -30957,7 +30953,7 @@
       <c r="H105" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="I105" s="10" t="s">
         <v>472</v>
       </c>
       <c r="J105" s="1"/>
@@ -31212,7 +31208,7 @@
       <c r="H106" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="I106" s="10" t="s">
         <v>473</v>
       </c>
       <c r="K106" s="1"/>
@@ -31474,7 +31470,7 @@
       <c r="H108" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="10" t="s">
         <v>474</v>
       </c>
       <c r="K108" s="1"/>
@@ -31744,7 +31740,7 @@
       <c r="H111" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I111" s="10" t="s">
         <v>476</v>
       </c>
     </row>
@@ -31752,7 +31748,7 @@
       <c r="H112" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I112" s="10" t="s">
         <v>477</v>
       </c>
     </row>
@@ -31760,7 +31756,7 @@
       <c r="H113" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="10" t="s">
         <v>478</v>
       </c>
     </row>
@@ -31768,7 +31764,7 @@
       <c r="H114" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" s="10" t="s">
         <v>479</v>
       </c>
     </row>
@@ -31776,7 +31772,7 @@
       <c r="H115" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="10" t="s">
         <v>480</v>
       </c>
       <c r="L115" s="1"/>
@@ -31801,7 +31797,7 @@
       <c r="H118" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="I118" s="10" t="s">
         <v>482</v>
       </c>
     </row>
@@ -31809,7 +31805,7 @@
       <c r="H119" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="10" t="s">
         <v>483</v>
       </c>
     </row>
@@ -31817,7 +31813,7 @@
       <c r="H120" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="10" t="s">
         <v>484</v>
       </c>
     </row>
@@ -31825,7 +31821,7 @@
       <c r="H121" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="10" t="s">
         <v>485</v>
       </c>
     </row>
@@ -31833,7 +31829,7 @@
       <c r="H122" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="10" t="s">
         <v>486</v>
       </c>
     </row>
